--- a/Requisitos/RequisitosProestheticVersionBeta.xlsx.xlsx.xlsx
+++ b/Requisitos/RequisitosProestheticVersionBeta.xlsx.xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="RF 02 V&quot;" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="456">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="427">
   <si>
     <t>Código</t>
   </si>
@@ -334,12 +334,6 @@
     <t>El sistema permitirá al usuario cambiar de estado un cliente</t>
   </si>
   <si>
-    <t>RF3.5</t>
-  </si>
-  <si>
-    <t>El sistema permitirá al administrador asignar un usuario a la clínica</t>
-  </si>
-  <si>
     <t>RF3.6</t>
   </si>
   <si>
@@ -490,9 +484,6 @@
     <t>El sistema permitirá al administrador ver al detalle un cliente</t>
   </si>
   <si>
-    <t>RF6.1</t>
-  </si>
-  <si>
     <t>RF031</t>
   </si>
   <si>
@@ -517,13 +508,7 @@
     <t>El sistema permitirá a la clinica inhabilitarse</t>
   </si>
   <si>
-    <t>El sistema permitirá al administrador registrar una entrega</t>
-  </si>
-  <si>
     <t>RF035</t>
-  </si>
-  <si>
-    <t>Gestionar Despacho-Recibo RF 6</t>
   </si>
   <si>
     <t>El sistema permitirá al usuario hacer un promedio ponderado segun el insumo</t>
@@ -533,36 +518,6 @@
   </si>
   <si>
     <t>El sistema permitirá al administrador registrar insumo</t>
-  </si>
-  <si>
-    <t>RF6.2</t>
-  </si>
-  <si>
-    <t>El sistema permitirá al usuario registrar una observación</t>
-  </si>
-  <si>
-    <t>RF6.3</t>
-  </si>
-  <si>
-    <t>El sistema permitirá al usuario realizar cambio de estado una entrega</t>
-  </si>
-  <si>
-    <t>RF6.4</t>
-  </si>
-  <si>
-    <t>El sistema permitirá al usuario ver al detalle un movimiento</t>
-  </si>
-  <si>
-    <t>RF6.5</t>
-  </si>
-  <si>
-    <t>El sistema permitirá al usuario consultar un  movimiento entrada y salida</t>
-  </si>
-  <si>
-    <t>RF6.6</t>
-  </si>
-  <si>
-    <t>El sistema permitira al usuario filtrar movimiento.</t>
   </si>
   <si>
     <t>RF7.1</t>
@@ -946,16 +901,10 @@
     <t>RI020</t>
   </si>
   <si>
-    <t>Para que se cumpla el RF 3.5 se debe cumplir el RF3.1</t>
-  </si>
-  <si>
     <t>RI021</t>
   </si>
   <si>
     <t>para que se cumpla el RF 3.6 se debe cumplir el RF 3.2</t>
-  </si>
-  <si>
-    <t>RI022</t>
   </si>
   <si>
     <t>RI023</t>
@@ -1021,40 +970,19 @@
     <t>RI033</t>
   </si>
   <si>
-    <t xml:space="preserve">Para que se cumpla el RF6.1 se debe seleccionar el pedido a entregar </t>
-  </si>
-  <si>
     <t>RI034</t>
-  </si>
-  <si>
-    <t>Para que se cumpla el RF6.2 se debe digitar la información requerida</t>
   </si>
   <si>
     <t>RI035</t>
   </si>
   <si>
-    <t>Para que se cumpla el RF6.3 se debe cumplir el 6.1</t>
-  </si>
-  <si>
     <t>RI036</t>
-  </si>
-  <si>
-    <t>Para que se cumpla el RF6.4 se debe cumplir el RF6.5</t>
   </si>
   <si>
     <t>RI037</t>
   </si>
   <si>
-    <t>Para que se cumpla el RF6.5 se debe dar clic en la acción</t>
-  </si>
-  <si>
     <t>RI038</t>
-  </si>
-  <si>
-    <t>Para que se cumpla el RF6.6 se debe cumplir el 6.5 e ingresar datos a filtrar (fecha,por nit, pedido, nombre clinica y estado)</t>
-  </si>
-  <si>
-    <t>RI040</t>
   </si>
   <si>
     <t>Para que se cumpla el RF7.1 se debe cumplir el RF1.4</t>
@@ -1063,22 +991,13 @@
     <t>Para que se cumpla el RF7.2 se debe cumplir el RF7.8</t>
   </si>
   <si>
-    <t>RI041</t>
-  </si>
-  <si>
     <t>Para que se cumpla el RF7.3 se debe debe cumplir el RF7.1 y el RF7.2</t>
   </si>
   <si>
     <t>Para que se cumpla el RF7.4 se debe cumplir el RF7.6</t>
   </si>
   <si>
-    <t>RI042</t>
-  </si>
-  <si>
     <t>Para que se cumpla el RF7.5 se debe cumplir el RF7.6</t>
-  </si>
-  <si>
-    <t>RI043</t>
   </si>
   <si>
     <t>Para que se cumpla el RF7.6 se be ejecutar la acción</t>
@@ -1291,9 +1210,6 @@
     <t>Rf12.2</t>
   </si>
   <si>
-    <t>El sistema permitirá al administrador asociar un servicio y un tipo contrato al adminitrador</t>
-  </si>
-  <si>
     <t>El sistema permitirá al administrador consultar un servicio tipo contrato</t>
   </si>
   <si>
@@ -1348,12 +1264,6 @@
     <t>RI017</t>
   </si>
   <si>
-    <t>RI039</t>
-  </si>
-  <si>
-    <t>RI044</t>
-  </si>
-  <si>
     <t>RI045</t>
   </si>
   <si>
@@ -1392,12 +1302,15 @@
   <si>
     <t>RI072</t>
   </si>
+  <si>
+    <t>El sistema permitirá al administrador asociar un servicio y un tipo contrato y establecer valor</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1438,15 +1351,8 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <u/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="32">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1581,12 +1487,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFA2C4C9"/>
         <bgColor rgb="FFA2C4C9"/>
       </patternFill>
@@ -1714,25 +1614,19 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="109">
+  <cellXfs count="107">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1788,14 +1682,13 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1807,10 +1700,10 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1818,27 +1711,41 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="18" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1848,12 +1755,10 @@
     <xf numFmtId="0" fontId="3" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1862,19 +1767,10 @@
     <xf numFmtId="0" fontId="5" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1893,10 +1789,7 @@
     <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1908,11 +1801,14 @@
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2257,10 +2153,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E60" sqref="E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2285,7 +2181,7 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="95" t="s">
+      <c r="C2" s="79" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="17"/>
@@ -2297,7 +2193,7 @@
       <c r="B3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="86"/>
+      <c r="C3" s="104"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2307,7 +2203,7 @@
       <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="86"/>
+      <c r="C4" s="104"/>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2317,7 +2213,7 @@
       <c r="B5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="104"/>
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2327,7 +2223,7 @@
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="86"/>
+      <c r="C6" s="104"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2337,7 +2233,7 @@
       <c r="B7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="86"/>
+      <c r="C7" s="104"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2347,7 +2243,7 @@
       <c r="B8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="104"/>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2357,27 +2253,27 @@
       <c r="B9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="104"/>
       <c r="D9" s="17"/>
     </row>
-    <row r="10" spans="1:4" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>451</v>
+        <v>421</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>449</v>
+        <v>419</v>
       </c>
-      <c r="C10" s="69"/>
+      <c r="C10" s="104"/>
       <c r="D10" s="23"/>
     </row>
-    <row r="11" spans="1:4" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>452</v>
+        <v>422</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>450</v>
+        <v>420</v>
       </c>
-      <c r="C11" s="69"/>
+      <c r="C11" s="104"/>
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2387,7 +2283,7 @@
       <c r="B12" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="94" t="s">
+      <c r="C12" s="76" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="17"/>
@@ -2399,7 +2295,7 @@
       <c r="B13" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="86"/>
+      <c r="C13" s="77"/>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2409,7 +2305,7 @@
       <c r="B14" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="86"/>
+      <c r="C14" s="77"/>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2419,7 +2315,7 @@
       <c r="B15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="86"/>
+      <c r="C15" s="77"/>
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2429,7 +2325,7 @@
       <c r="B16" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="87"/>
+      <c r="C16" s="78"/>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2439,7 +2335,7 @@
       <c r="B17" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="82" t="s">
+      <c r="C17" s="85" t="s">
         <v>87</v>
       </c>
       <c r="D17" s="23" t="s">
@@ -2453,7 +2349,7 @@
       <c r="B18" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="83"/>
+      <c r="C18" s="86"/>
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2463,7 +2359,7 @@
       <c r="B19" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="83"/>
+      <c r="C19" s="86"/>
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2473,525 +2369,454 @@
       <c r="B20" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="83"/>
+      <c r="C20" s="86"/>
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="36" t="s">
         <v>103</v>
       </c>
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="83"/>
+      <c r="C21" s="86"/>
       <c r="D21" s="17"/>
     </row>
-    <row r="22" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A22" s="32" t="s">
+        <v>369</v>
+      </c>
+      <c r="B22" s="72" t="s">
+        <v>418</v>
+      </c>
+      <c r="C22" s="86"/>
+      <c r="D22" s="23"/>
+    </row>
+    <row r="23" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A23" s="36" t="s">
+        <v>377</v>
+      </c>
+      <c r="B23" s="36" t="s">
+        <v>378</v>
+      </c>
+      <c r="C23" s="87"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>106</v>
+      <c r="B24" s="38" t="s">
+        <v>112</v>
       </c>
-      <c r="C22" s="83"/>
-      <c r="D22" s="17"/>
-    </row>
-    <row r="23" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>396</v>
+      <c r="C24" s="90" t="s">
+        <v>113</v>
       </c>
-      <c r="B23" s="74" t="s">
-        <v>448</v>
-      </c>
-      <c r="C23" s="83"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
-        <v>404</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>405</v>
-      </c>
-      <c r="C24" s="84"/>
-      <c r="D24" s="23"/>
+      <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
-        <v>107</v>
-      </c>
-      <c r="B25" s="38" t="s">
-        <v>114</v>
-      </c>
-      <c r="C25" s="89" t="s">
+      <c r="A25" s="40" t="s">
         <v>115</v>
       </c>
+      <c r="B25" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="77"/>
       <c r="D25" s="17"/>
+      <c r="E25" s="23"/>
     </row>
     <row r="26" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="40" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B26" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="86"/>
+      <c r="C26" s="77"/>
       <c r="D26" s="17"/>
-      <c r="E26" s="23"/>
     </row>
     <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="40" t="s">
+      <c r="A27" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="B27" s="40" t="s">
+      <c r="B27" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="86"/>
+      <c r="C27" s="78"/>
       <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="42" t="s">
         <v>123</v>
       </c>
-      <c r="B28" s="38" t="s">
-        <v>124</v>
+      <c r="B28" s="42" t="s">
+        <v>135</v>
       </c>
-      <c r="C28" s="87"/>
+      <c r="C28" s="80" t="s">
+        <v>403</v>
+      </c>
       <c r="D28" s="17"/>
     </row>
     <row r="29" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A29" s="42" t="s">
-        <v>125</v>
+      <c r="A29" s="45" t="s">
+        <v>138</v>
       </c>
-      <c r="B29" s="42" t="s">
-        <v>137</v>
+      <c r="B29" s="45" t="s">
+        <v>142</v>
       </c>
-      <c r="C29" s="91" t="s">
-        <v>431</v>
+      <c r="C29" s="81"/>
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A30" s="42" t="s">
+        <v>143</v>
       </c>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A30" s="45" t="s">
-        <v>140</v>
-      </c>
-      <c r="B30" s="45" t="s">
+      <c r="B30" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="107"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="45" t="s">
         <v>145</v>
       </c>
-      <c r="B31" s="42" t="s">
+      <c r="B31" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="107"/>
-      <c r="D31" s="17"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A32" s="45" t="s">
+      <c r="A32" s="42" t="s">
         <v>147</v>
       </c>
-      <c r="B32" s="45" t="s">
+      <c r="B32" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="107"/>
-      <c r="D32" s="23"/>
+      <c r="C32" s="81"/>
+      <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="45" t="s">
         <v>149</v>
       </c>
-      <c r="B33" s="42" t="s">
+      <c r="B33" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="107"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="17"/>
     </row>
-    <row r="34" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="45" t="s">
-        <v>151</v>
+        <v>402</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>152</v>
+        <v>406</v>
       </c>
-      <c r="C34" s="107"/>
-      <c r="D34" s="17"/>
-    </row>
-    <row r="35" spans="1:4" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="C34" s="81"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="45" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="B35" s="45" t="s">
-        <v>434</v>
+        <v>405</v>
       </c>
-      <c r="C35" s="107"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="23"/>
     </row>
-    <row r="36" spans="1:4" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="45" t="s">
-        <v>432</v>
+        <v>410</v>
       </c>
       <c r="B36" s="45" t="s">
-        <v>433</v>
+        <v>409</v>
       </c>
-      <c r="C36" s="107"/>
+      <c r="C36" s="82"/>
       <c r="D36" s="23"/>
     </row>
-    <row r="37" spans="1:4" s="70" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A37" s="45" t="s">
-        <v>438</v>
+    <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A37" s="34" t="s">
+        <v>165</v>
       </c>
-      <c r="B37" s="45" t="s">
-        <v>437</v>
-      </c>
-      <c r="C37" s="108"/>
-      <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A38" s="47" t="s">
-        <v>155</v>
-      </c>
-      <c r="B38" s="47" t="s">
-        <v>164</v>
-      </c>
-      <c r="C38" s="92" t="s">
+      <c r="B37" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D38" s="17"/>
-    </row>
-    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A39" s="47" t="s">
+      <c r="C37" s="92" t="s">
+        <v>167</v>
+      </c>
+      <c r="D37" s="17"/>
+    </row>
+    <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B38" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B39" s="47" t="s">
+      <c r="C38" s="77"/>
+      <c r="D38" s="17"/>
+    </row>
+    <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A39" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="17"/>
-    </row>
-    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A40" s="47" t="s">
+      <c r="B39" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="B40" s="47" t="s">
+      <c r="C39" s="77"/>
+      <c r="D39" s="17"/>
+    </row>
+    <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A40" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="17"/>
-    </row>
-    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A41" s="47" t="s">
+      <c r="B40" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="C40" s="77"/>
+      <c r="D40" s="17"/>
+    </row>
+    <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A41" s="34" t="s">
         <v>175</v>
       </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="47" t="s">
+      <c r="B41" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="B42" s="47" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="47" t="s">
-        <v>178</v>
-      </c>
-      <c r="B43" s="47" t="s">
+      <c r="C41" s="77"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="C43" s="87"/>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="34" t="s">
+      <c r="B42" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="B44" s="34" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="C44" s="93" t="s">
-        <v>182</v>
-      </c>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="34" t="s">
-        <v>184</v>
-      </c>
-      <c r="B45" s="34" t="s">
-        <v>185</v>
-      </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="34" t="s">
-        <v>186</v>
-      </c>
-      <c r="B46" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="34" t="s">
-        <v>188</v>
-      </c>
-      <c r="B47" s="34" t="s">
-        <v>189</v>
-      </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="34" t="s">
-        <v>190</v>
-      </c>
-      <c r="B48" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="34" t="s">
+      <c r="B43" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="34" t="s">
+      <c r="C43" s="88" t="s">
         <v>195</v>
       </c>
-      <c r="C49" s="87"/>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="50" t="s">
-        <v>196</v>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="36" t="s">
+        <v>198</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B44" s="36" t="s">
+        <v>199</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="49" t="s">
+        <v>200</v>
+      </c>
+      <c r="B45" s="49" t="s">
+        <v>201</v>
+      </c>
+      <c r="C45" s="77"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="B46" s="36" t="s">
+        <v>203</v>
+      </c>
+      <c r="C46" s="77"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="49" t="s">
+        <v>206</v>
+      </c>
+      <c r="B47" s="49" t="s">
+        <v>207</v>
+      </c>
+      <c r="C47" s="77"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="B48" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="C50" s="85" t="s">
+      <c r="C48" s="77"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="D50" s="17"/>
-    </row>
-    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A51" s="36" t="s">
-        <v>213</v>
+      <c r="B49" s="49" t="s">
+        <v>211</v>
       </c>
-      <c r="B51" s="36" t="s">
+      <c r="C49" s="78"/>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="C51" s="86"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="50" t="s">
-        <v>215</v>
-      </c>
-      <c r="B52" s="50" t="s">
-        <v>216</v>
-      </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="36" t="s">
+      <c r="B50" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="B53" s="36" t="s">
+      <c r="C50" s="91" t="s">
         <v>218</v>
       </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="50" t="s">
-        <v>221</v>
-      </c>
-      <c r="B54" s="50" t="s">
+      <c r="D50" s="17"/>
+    </row>
+    <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A51" s="54" t="s">
         <v>222</v>
       </c>
-      <c r="C54" s="86"/>
-      <c r="D54" s="17"/>
-    </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="B55" s="36" t="s">
+      <c r="B51" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="C55" s="86"/>
-      <c r="D55" s="17"/>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="50" t="s">
+      <c r="C51" s="77"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="B56" s="50" t="s">
+      <c r="B52" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C56" s="87"/>
-      <c r="D56" s="17"/>
-    </row>
-    <row r="57" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A57" s="30" t="s">
+      <c r="C52" s="77"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B53" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="C53" s="78"/>
+      <c r="D53" s="17"/>
+    </row>
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="B57" s="30" t="s">
+      <c r="B54" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="C57" s="90" t="s">
+      <c r="C54" s="89" t="s">
         <v>233</v>
       </c>
-      <c r="D57" s="17"/>
-    </row>
-    <row r="58" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="55" t="s">
-        <v>237</v>
-      </c>
-      <c r="B58" s="55" t="s">
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="17"/>
-    </row>
-    <row r="59" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A59" s="55" t="s">
-        <v>240</v>
-      </c>
-      <c r="B59" s="55" t="s">
-        <v>241</v>
-      </c>
-      <c r="C59" s="86"/>
-      <c r="D59" s="17"/>
-    </row>
-    <row r="60" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="30" t="s">
+      <c r="B55" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="B60" s="30" t="s">
+      <c r="C55" s="77"/>
+    </row>
+    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A56" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="C60" s="87"/>
-      <c r="D60" s="17"/>
-    </row>
-    <row r="61" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A61" s="56" t="s">
+      <c r="B56" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="56" t="s">
-        <v>247</v>
+      <c r="C56" s="77"/>
+    </row>
+    <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="69" t="s">
+        <v>370</v>
       </c>
-      <c r="C61" s="88" t="s">
-        <v>248</v>
+      <c r="B57" s="69" t="s">
+        <v>373</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A62" s="58" t="s">
-        <v>254</v>
+      <c r="C57" s="83" t="s">
+        <v>389</v>
       </c>
-      <c r="B62" s="58" t="s">
-        <v>257</v>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="70" t="s">
+        <v>371</v>
       </c>
-      <c r="C62" s="86"/>
-    </row>
-    <row r="63" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A63" s="56" t="s">
-        <v>258</v>
+      <c r="B58" s="70" t="s">
+        <v>374</v>
       </c>
-      <c r="B63" s="56" t="s">
-        <v>259</v>
+      <c r="C58" s="84"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="69" t="s">
+        <v>372</v>
       </c>
-      <c r="C63" s="86"/>
-    </row>
-    <row r="64" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="71" t="s">
+      <c r="B59" s="69" t="s">
+        <v>375</v>
+      </c>
+      <c r="C59" s="84"/>
+    </row>
+    <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="73" t="s">
+        <v>390</v>
+      </c>
+      <c r="B60" s="73" t="s">
+        <v>426</v>
+      </c>
+      <c r="C60" s="105" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="73" t="s">
+        <v>394</v>
+      </c>
+      <c r="B61" t="s">
+        <v>395</v>
+      </c>
+      <c r="C61" s="106"/>
+    </row>
+    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="73" t="s">
         <v>397</v>
       </c>
-      <c r="B64" s="71" t="s">
-        <v>400</v>
+      <c r="B62" t="s">
+        <v>396</v>
       </c>
-      <c r="C64" s="80" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="72" t="s">
-        <v>398</v>
-      </c>
-      <c r="B65" s="72" t="s">
-        <v>401</v>
-      </c>
-      <c r="C65" s="81"/>
-    </row>
-    <row r="66" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="71" t="s">
-        <v>399</v>
-      </c>
-      <c r="B66" s="71" t="s">
-        <v>402</v>
-      </c>
-      <c r="C66" s="81"/>
-    </row>
-    <row r="67" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="75" t="s">
-        <v>417</v>
-      </c>
-      <c r="B67" s="75" t="s">
-        <v>422</v>
-      </c>
-      <c r="C67" s="76" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="75" t="s">
-        <v>421</v>
-      </c>
-      <c r="B68" t="s">
-        <v>423</v>
-      </c>
-      <c r="C68" s="77"/>
-    </row>
-    <row r="69" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A69" s="75" t="s">
-        <v>425</v>
-      </c>
-      <c r="B69" t="s">
-        <v>424</v>
-      </c>
+      <c r="C62" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C60:C62"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C2:C9"/>
-    <mergeCell ref="C29:C37"/>
-    <mergeCell ref="C64:C66"/>
-    <mergeCell ref="C17:C24"/>
-    <mergeCell ref="C50:C56"/>
-    <mergeCell ref="C61:C63"/>
-    <mergeCell ref="C25:C28"/>
-    <mergeCell ref="C57:C60"/>
-    <mergeCell ref="C38:C43"/>
-    <mergeCell ref="C44:C49"/>
+    <mergeCell ref="C28:C36"/>
+    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C17:C23"/>
+    <mergeCell ref="C43:C49"/>
+    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C24:C27"/>
+    <mergeCell ref="C50:C53"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C2:C11"/>
   </mergeCells>
-  <conditionalFormatting sqref="A50:C50 A52:B52 A54:B54 A56:B56">
+  <conditionalFormatting sqref="A43:C43 A45:B45 A47:B47 A49:B49">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(A50))&gt;0</formula>
+      <formula>LEN(TRIM(A43))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3033,10 +2858,10 @@
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="100" t="s">
+      <c r="C2" s="98" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="96">
+      <c r="D2" s="94">
         <v>1</v>
       </c>
       <c r="E2" s="7"/>
@@ -3048,8 +2873,8 @@
       <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="86"/>
-      <c r="D3" s="97"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="95"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3059,8 +2884,8 @@
       <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="86"/>
-      <c r="D4" s="97"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3070,8 +2895,8 @@
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="86"/>
-      <c r="D5" s="97"/>
+      <c r="C5" s="77"/>
+      <c r="D5" s="95"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -3083,8 +2908,8 @@
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="97"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="95"/>
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3094,8 +2919,8 @@
       <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="87"/>
-      <c r="D7" s="97"/>
+      <c r="C7" s="78"/>
+      <c r="D7" s="95"/>
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3105,10 +2930,10 @@
       <c r="B8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="95" t="s">
+      <c r="C8" s="79" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="96">
+      <c r="D8" s="94">
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
@@ -3120,8 +2945,8 @@
       <c r="B9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="86"/>
-      <c r="D9" s="97"/>
+      <c r="C9" s="77"/>
+      <c r="D9" s="95"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3131,8 +2956,8 @@
       <c r="B10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="86"/>
-      <c r="D10" s="97"/>
+      <c r="C10" s="77"/>
+      <c r="D10" s="95"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3142,8 +2967,8 @@
       <c r="B11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="86"/>
-      <c r="D11" s="97"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="95"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3153,8 +2978,8 @@
       <c r="B12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="86"/>
-      <c r="D12" s="97"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="95"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3164,8 +2989,8 @@
       <c r="B13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="87"/>
-      <c r="D13" s="97"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="95"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3175,10 +3000,10 @@
       <c r="B14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="101" t="s">
+      <c r="C14" s="99" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="96">
+      <c r="D14" s="94">
         <v>3</v>
       </c>
       <c r="E14" s="7"/>
@@ -3190,8 +3015,8 @@
       <c r="B15" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="86"/>
-      <c r="D15" s="97"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="95"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3201,8 +3026,8 @@
       <c r="B16" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="86"/>
-      <c r="D16" s="97"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="95"/>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3212,8 +3037,8 @@
       <c r="B17" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="86"/>
-      <c r="D17" s="97"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="95"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3223,8 +3048,8 @@
       <c r="B18" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="86"/>
-      <c r="D18" s="97"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="95"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3234,491 +3059,491 @@
       <c r="B19" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="86"/>
-      <c r="D19" s="97"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="95"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="77"/>
+      <c r="D20" s="95"/>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
         <v>108</v>
       </c>
-      <c r="B20" s="37" t="s">
+      <c r="B21" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="7"/>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35" t="s">
+      <c r="C21" s="77"/>
+      <c r="D21" s="95"/>
+      <c r="E21" s="7"/>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="37" t="s">
+      <c r="B22" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C21" s="86"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="7"/>
-    </row>
-    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35" t="s">
-        <v>112</v>
+      <c r="C22" s="97" t="s">
+        <v>114</v>
       </c>
-      <c r="B22" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>116</v>
-      </c>
-      <c r="D22" s="96">
+      <c r="D22" s="94">
         <v>6</v>
       </c>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="35" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B23" s="41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
-      <c r="C23" s="86"/>
-      <c r="D23" s="97"/>
+      <c r="C23" s="77"/>
+      <c r="D23" s="95"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="39" t="s">
+        <v>125</v>
+      </c>
+      <c r="C24" s="77"/>
+      <c r="D24" s="95"/>
+      <c r="E24" s="7"/>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
         <v>126</v>
       </c>
-      <c r="B24" s="39" t="s">
+      <c r="B25" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C24" s="86"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="7"/>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35" t="s">
+      <c r="C25" s="77"/>
+      <c r="D25" s="95"/>
+      <c r="E25" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="B25" s="15" t="s">
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="C25" s="86"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="16" t="s">
+      <c r="B26" s="39" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="35" t="s">
+      <c r="C26" s="77"/>
+      <c r="D26" s="95"/>
+      <c r="E26" s="7"/>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="B26" s="39" t="s">
+      <c r="B27" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C26" s="86"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="7"/>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="35" t="s">
+      <c r="C27" s="77"/>
+      <c r="D27" s="95"/>
+      <c r="E27" s="7"/>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B27" s="15" t="s">
+      <c r="B28" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C27" s="86"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="7"/>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B28" s="43" t="s">
+      <c r="C28" s="77"/>
+      <c r="D28" s="95"/>
+      <c r="E28" s="7"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="C28" s="86"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="7"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="35" t="s">
-        <v>138</v>
+      <c r="B29" s="44" t="s">
+        <v>137</v>
       </c>
-      <c r="B29" s="44" t="s">
+      <c r="C29" s="85" t="s">
         <v>139</v>
       </c>
-      <c r="C29" s="82" t="s">
-        <v>141</v>
-      </c>
-      <c r="D29" s="96">
+      <c r="D29" s="94">
         <v>4</v>
       </c>
       <c r="E29" s="7"/>
     </row>
     <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="35" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B30" s="46" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
-      <c r="C30" s="86"/>
-      <c r="D30" s="97"/>
+      <c r="C30" s="77"/>
+      <c r="D30" s="95"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>152</v>
+      </c>
+      <c r="C31" s="77"/>
+      <c r="D31" s="95"/>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="35" t="s">
         <v>153</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B32" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C31" s="86"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="7"/>
-    </row>
-    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="35" t="s">
+      <c r="C32" s="77"/>
+      <c r="D32" s="95"/>
+      <c r="E32" s="16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B33" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="B32" s="46" t="s">
+      <c r="C33" s="77"/>
+      <c r="D33" s="95"/>
+      <c r="E33" s="7"/>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="35" t="s">
         <v>157</v>
       </c>
-      <c r="C32" s="86"/>
-      <c r="D32" s="97"/>
-      <c r="E32" s="16" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="35" t="s">
+      <c r="B34" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="B33" s="44" t="s">
+      <c r="C34" s="77"/>
+      <c r="D34" s="95"/>
+      <c r="E34" s="7"/>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="C33" s="86"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="7"/>
-    </row>
-    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="35" t="s">
+      <c r="B35" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="B34" s="46" t="s">
+      <c r="C35" s="77"/>
+      <c r="D35" s="95"/>
+      <c r="E35" s="7"/>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="C34" s="86"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="7"/>
-    </row>
-    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="35" t="s">
+      <c r="B36" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="B35" s="44" t="s">
-        <v>163</v>
-      </c>
-      <c r="C35" s="86"/>
-      <c r="D35" s="97"/>
-      <c r="E35" s="7"/>
-    </row>
-    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="35" t="s">
-        <v>165</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>167</v>
-      </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="96">
+      <c r="C36" s="77"/>
+      <c r="D36" s="94">
         <v>5</v>
       </c>
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="35" t="s">
+        <v>163</v>
+      </c>
+      <c r="B37" s="47" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" s="93" t="s">
         <v>168</v>
       </c>
-      <c r="B37" s="48" t="s">
-        <v>169</v>
+      <c r="D37" s="95"/>
+      <c r="E37" s="7"/>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
+        <v>177</v>
       </c>
-      <c r="C37" s="103" t="s">
+      <c r="B38" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="C38" s="77"/>
+      <c r="D38" s="95"/>
+      <c r="E38" s="7"/>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="D37" s="97"/>
-      <c r="E37" s="7"/>
-    </row>
-    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="35" t="s">
+      <c r="C39" s="77"/>
+      <c r="D39" s="95"/>
+      <c r="E39" s="16" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
+        <v>185</v>
+      </c>
+      <c r="B40" s="48" t="s">
+        <v>186</v>
+      </c>
+      <c r="C40" s="77"/>
+      <c r="D40" s="95"/>
+      <c r="E40" s="7"/>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="B41" s="47" t="s">
+        <v>188</v>
+      </c>
+      <c r="C41" s="77"/>
+      <c r="D41" s="95"/>
+      <c r="E41" s="7"/>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="B42" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="C42" s="77"/>
+      <c r="D42" s="95"/>
+      <c r="E42" s="7"/>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
+        <v>191</v>
+      </c>
+      <c r="B43" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B38" s="49" t="s">
+      <c r="C43" s="92" t="s">
         <v>193</v>
       </c>
-      <c r="C38" s="86"/>
-      <c r="D38" s="97"/>
-      <c r="E38" s="7"/>
-    </row>
-    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="35" t="s">
-        <v>197</v>
-      </c>
-      <c r="B39" s="48" t="s">
-        <v>198</v>
-      </c>
-      <c r="C39" s="86"/>
-      <c r="D39" s="97"/>
-      <c r="E39" s="16" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="35" t="s">
-        <v>200</v>
-      </c>
-      <c r="B40" s="49" t="s">
-        <v>201</v>
-      </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="97"/>
-      <c r="E40" s="7"/>
-    </row>
-    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="35" t="s">
-        <v>202</v>
-      </c>
-      <c r="B41" s="48" t="s">
-        <v>203</v>
-      </c>
-      <c r="C41" s="86"/>
-      <c r="D41" s="97"/>
-      <c r="E41" s="7"/>
-    </row>
-    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="35" t="s">
-        <v>204</v>
-      </c>
-      <c r="B42" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="97"/>
-      <c r="E42" s="7"/>
-    </row>
-    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="35" t="s">
-        <v>206</v>
-      </c>
-      <c r="B43" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="C43" s="93" t="s">
-        <v>208</v>
-      </c>
-      <c r="D43" s="96">
+      <c r="D43" s="94">
         <v>7</v>
       </c>
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="35" t="s">
-        <v>211</v>
+        <v>196</v>
       </c>
-      <c r="B44" s="51" t="s">
+      <c r="B44" s="50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="77"/>
+      <c r="D44" s="95"/>
+      <c r="E44" s="7"/>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="35" t="s">
+        <v>204</v>
+      </c>
+      <c r="B45" s="51" t="s">
+        <v>205</v>
+      </c>
+      <c r="C45" s="77"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="7"/>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="C44" s="86"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="7"/>
-    </row>
-    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="35" t="s">
+      <c r="B46" s="50" t="s">
+        <v>213</v>
+      </c>
+      <c r="C46" s="77"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="7"/>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="35" t="s">
+        <v>215</v>
+      </c>
+      <c r="B47" s="51" t="s">
+        <v>216</v>
+      </c>
+      <c r="C47" s="77"/>
+      <c r="D47" s="95"/>
+      <c r="E47" s="7"/>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B45" s="52" t="s">
+      <c r="B48" s="52" t="s">
+        <v>174</v>
+      </c>
+      <c r="C48" s="77"/>
+      <c r="D48" s="95"/>
+      <c r="E48" s="7"/>
+    </row>
+    <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="C45" s="86"/>
-      <c r="D45" s="97"/>
-      <c r="E45" s="7"/>
-    </row>
-    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="35" t="s">
-        <v>227</v>
+      <c r="B49" s="53" t="s">
+        <v>221</v>
       </c>
-      <c r="B46" s="51" t="s">
-        <v>228</v>
+      <c r="C49" s="100" t="s">
+        <v>223</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="7"/>
-    </row>
-    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="35" t="s">
-        <v>230</v>
-      </c>
-      <c r="B47" s="52" t="s">
-        <v>231</v>
-      </c>
-      <c r="C47" s="86"/>
-      <c r="D47" s="97"/>
-      <c r="E47" s="7"/>
-    </row>
-    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="35" t="s">
-        <v>234</v>
-      </c>
-      <c r="B48" s="53" t="s">
-        <v>189</v>
-      </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="97"/>
-      <c r="E48" s="7"/>
-    </row>
-    <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="35" t="s">
-        <v>235</v>
-      </c>
-      <c r="B49" s="54" t="s">
-        <v>236</v>
-      </c>
-      <c r="C49" s="102" t="s">
-        <v>238</v>
-      </c>
-      <c r="D49" s="96">
+      <c r="D49" s="94">
         <v>8</v>
       </c>
       <c r="E49" s="7"/>
     </row>
     <row r="50" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="35" t="s">
+        <v>230</v>
+      </c>
+      <c r="B50" s="56" t="s">
+        <v>231</v>
+      </c>
+      <c r="C50" s="77"/>
+      <c r="D50" s="95"/>
+      <c r="E50" s="7"/>
+    </row>
+    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="35" t="s">
+        <v>234</v>
+      </c>
+      <c r="B51" s="53" t="s">
+        <v>235</v>
+      </c>
+      <c r="C51" s="77"/>
+      <c r="D51" s="95"/>
+      <c r="E51" s="7"/>
+    </row>
+    <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="35" t="s">
+        <v>236</v>
+      </c>
+      <c r="B52" s="56" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="77"/>
+      <c r="D52" s="95"/>
+      <c r="E52" s="7"/>
+    </row>
+    <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="35" t="s">
+        <v>237</v>
+      </c>
+      <c r="B53" s="53" t="s">
+        <v>238</v>
+      </c>
+      <c r="C53" s="77"/>
+      <c r="D53" s="95"/>
+      <c r="E53" s="7"/>
+    </row>
+    <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="35" t="s">
+        <v>240</v>
+      </c>
+      <c r="B54" s="58" t="s">
+        <v>241</v>
+      </c>
+      <c r="C54" s="78"/>
+      <c r="D54" s="95"/>
+      <c r="E54" s="7"/>
+    </row>
+    <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="35" t="s">
         <v>245</v>
       </c>
-      <c r="B50" s="57" t="s">
+      <c r="B55" s="59" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="96" t="s">
         <v>246</v>
       </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="97"/>
-      <c r="E50" s="7"/>
-    </row>
-    <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="35" t="s">
-        <v>249</v>
-      </c>
-      <c r="B51" s="54" t="s">
-        <v>250</v>
-      </c>
-      <c r="C51" s="86"/>
-      <c r="D51" s="97"/>
-      <c r="E51" s="7"/>
-    </row>
-    <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="35" t="s">
-        <v>251</v>
-      </c>
-      <c r="B52" s="57" t="s">
-        <v>218</v>
-      </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="97"/>
-      <c r="E52" s="7"/>
-    </row>
-    <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="35" t="s">
-        <v>252</v>
-      </c>
-      <c r="B53" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="C53" s="86"/>
-      <c r="D53" s="97"/>
-      <c r="E53" s="7"/>
-    </row>
-    <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="35" t="s">
-        <v>255</v>
-      </c>
-      <c r="B54" s="59" t="s">
-        <v>256</v>
-      </c>
-      <c r="C54" s="87"/>
-      <c r="D54" s="97"/>
-      <c r="E54" s="7"/>
-    </row>
-    <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="35" t="s">
-        <v>260</v>
-      </c>
-      <c r="B55" s="60" t="s">
-        <v>137</v>
-      </c>
-      <c r="C55" s="98" t="s">
-        <v>261</v>
-      </c>
-      <c r="D55" s="96">
+      <c r="D55" s="94">
         <v>9</v>
       </c>
       <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="35" t="s">
-        <v>262</v>
+        <v>247</v>
       </c>
-      <c r="B56" s="61" t="s">
-        <v>263</v>
+      <c r="B56" s="60" t="s">
+        <v>248</v>
       </c>
-      <c r="C56" s="86"/>
-      <c r="D56" s="97"/>
+      <c r="C56" s="77"/>
+      <c r="D56" s="95"/>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="35" t="s">
-        <v>264</v>
+        <v>249</v>
       </c>
-      <c r="B57" s="60" t="s">
-        <v>265</v>
+      <c r="B57" s="59" t="s">
+        <v>250</v>
       </c>
-      <c r="C57" s="86"/>
-      <c r="D57" s="97"/>
+      <c r="C57" s="77"/>
+      <c r="D57" s="95"/>
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="35" t="s">
-        <v>266</v>
+        <v>251</v>
       </c>
-      <c r="B58" s="61" t="s">
-        <v>267</v>
+      <c r="B58" s="60" t="s">
+        <v>252</v>
       </c>
-      <c r="C58" s="86"/>
-      <c r="D58" s="97"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="95"/>
       <c r="E58" s="16" t="s">
-        <v>268</v>
+        <v>253</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="35" t="s">
-        <v>269</v>
+        <v>254</v>
       </c>
-      <c r="B59" s="60" t="s">
-        <v>148</v>
+      <c r="B59" s="59" t="s">
+        <v>146</v>
       </c>
-      <c r="C59" s="86"/>
-      <c r="D59" s="97"/>
+      <c r="C59" s="77"/>
+      <c r="D59" s="95"/>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="35" t="s">
-        <v>270</v>
+        <v>255</v>
       </c>
-      <c r="B60" s="61" t="s">
-        <v>271</v>
+      <c r="B60" s="60" t="s">
+        <v>256</v>
       </c>
-      <c r="C60" s="87"/>
-      <c r="D60" s="97"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="95"/>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10303,11 +10128,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D49:D54"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="D2:D7"/>
     <mergeCell ref="D55:D60"/>
     <mergeCell ref="C55:C60"/>
     <mergeCell ref="C22:C28"/>
@@ -10321,6 +10141,11 @@
     <mergeCell ref="D14:D21"/>
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="D36:D42"/>
+    <mergeCell ref="C43:C48"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D49:D54"/>
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="D2:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="B49:C49 B51 B53">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -10374,7 +10199,7 @@
       <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="105" t="s">
+      <c r="C2" s="102" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="10"/>
@@ -10394,7 +10219,7 @@
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="87"/>
+      <c r="C3" s="78"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -10412,7 +10237,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="104" t="s">
+      <c r="C4" s="101" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="10"/>
@@ -10432,7 +10257,7 @@
       <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="86"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -10450,7 +10275,7 @@
       <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="87"/>
+      <c r="C6" s="78"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -10468,7 +10293,7 @@
       <c r="B7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="106" t="s">
+      <c r="C7" s="103" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="10"/>
@@ -10488,7 +10313,7 @@
       <c r="B8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="86"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -10506,7 +10331,7 @@
       <c r="B9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="86"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -10524,7 +10349,7 @@
       <c r="B10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="87"/>
+      <c r="C10" s="78"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -24395,10 +24220,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J1005"/>
+  <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24409,11 +24234,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="61" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
-        <v>272</v>
+      <c r="B1" s="62" t="s">
+        <v>257</v>
       </c>
       <c r="C1" s="10"/>
       <c r="D1" s="10"/>
@@ -24425,11 +24250,11 @@
       <c r="J1" s="7"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="64" t="s">
-        <v>273</v>
+      <c r="A2" s="63" t="s">
+        <v>258</v>
       </c>
-      <c r="B2" s="65" t="s">
-        <v>274</v>
+      <c r="B2" s="64" t="s">
+        <v>259</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -24441,11 +24266,11 @@
       <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
-        <v>275</v>
+      <c r="A3" s="63" t="s">
+        <v>260</v>
       </c>
-      <c r="B3" s="66" t="s">
-        <v>276</v>
+      <c r="B3" s="65" t="s">
+        <v>261</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -24457,11 +24282,11 @@
       <c r="J3" s="7"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="64" t="s">
-        <v>277</v>
+      <c r="A4" s="63" t="s">
+        <v>262</v>
       </c>
-      <c r="B4" s="65" t="s">
-        <v>278</v>
+      <c r="B4" s="64" t="s">
+        <v>263</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -24473,11 +24298,11 @@
       <c r="J4" s="7"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="64" t="s">
-        <v>279</v>
+      <c r="A5" s="63" t="s">
+        <v>264</v>
       </c>
-      <c r="B5" s="66" t="s">
-        <v>280</v>
+      <c r="B5" s="65" t="s">
+        <v>265</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -24489,11 +24314,11 @@
       <c r="J5" s="7"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
-        <v>281</v>
+      <c r="A6" s="63" t="s">
+        <v>266</v>
       </c>
-      <c r="B6" s="66" t="s">
-        <v>282</v>
+      <c r="B6" s="65" t="s">
+        <v>267</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -24505,11 +24330,11 @@
       <c r="J6" s="7"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="64" t="s">
-        <v>283</v>
+      <c r="A7" s="63" t="s">
+        <v>268</v>
       </c>
-      <c r="B7" s="65" t="s">
-        <v>284</v>
+      <c r="B7" s="64" t="s">
+        <v>269</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -24521,11 +24346,11 @@
       <c r="J7" s="7"/>
     </row>
     <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="64" t="s">
-        <v>285</v>
+      <c r="A8" s="63" t="s">
+        <v>270</v>
       </c>
-      <c r="B8" s="65" t="s">
-        <v>286</v>
+      <c r="B8" s="64" t="s">
+        <v>271</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -24537,11 +24362,11 @@
       <c r="J8" s="7"/>
     </row>
     <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="64" t="s">
-        <v>287</v>
+      <c r="A9" s="63" t="s">
+        <v>272</v>
       </c>
-      <c r="B9" s="65" t="s">
-        <v>288</v>
+      <c r="B9" s="64" t="s">
+        <v>273</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -24552,12 +24377,12 @@
       <c r="I9" s="7"/>
       <c r="J9" s="7"/>
     </row>
-    <row r="10" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="64" t="s">
-        <v>289</v>
+    <row r="10" spans="1:10" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="63" t="s">
+        <v>274</v>
       </c>
-      <c r="B10" s="65" t="s">
-        <v>453</v>
+      <c r="B10" s="64" t="s">
+        <v>423</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -24568,12 +24393,12 @@
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
     </row>
-    <row r="11" spans="1:10" s="70" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="64" t="s">
-        <v>291</v>
+    <row r="11" spans="1:10" s="68" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="63" t="s">
+        <v>276</v>
       </c>
-      <c r="B11" s="65" t="s">
-        <v>454</v>
+      <c r="B11" s="64" t="s">
+        <v>424</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -24585,11 +24410,11 @@
       <c r="J11" s="10"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="64" t="s">
-        <v>293</v>
+      <c r="A12" s="63" t="s">
+        <v>278</v>
       </c>
-      <c r="B12" s="65" t="s">
-        <v>290</v>
+      <c r="B12" s="64" t="s">
+        <v>275</v>
       </c>
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
@@ -24601,11 +24426,11 @@
       <c r="J12" s="7"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="64" t="s">
-        <v>295</v>
+      <c r="A13" s="63" t="s">
+        <v>280</v>
       </c>
-      <c r="B13" s="66" t="s">
-        <v>292</v>
+      <c r="B13" s="65" t="s">
+        <v>277</v>
       </c>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
@@ -24617,11 +24442,11 @@
       <c r="J13" s="7"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="64" t="s">
-        <v>297</v>
+      <c r="A14" s="63" t="s">
+        <v>282</v>
       </c>
-      <c r="B14" s="65" t="s">
-        <v>294</v>
+      <c r="B14" s="64" t="s">
+        <v>279</v>
       </c>
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
@@ -24633,11 +24458,11 @@
       <c r="J14" s="7"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="64" t="s">
-        <v>299</v>
+      <c r="A15" s="63" t="s">
+        <v>284</v>
       </c>
-      <c r="B15" s="66" t="s">
-        <v>296</v>
+      <c r="B15" s="65" t="s">
+        <v>281</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
@@ -24649,11 +24474,11 @@
       <c r="J15" s="7"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="64" t="s">
-        <v>301</v>
+      <c r="A16" s="63" t="s">
+        <v>286</v>
       </c>
-      <c r="B16" s="65" t="s">
-        <v>298</v>
+      <c r="B16" s="64" t="s">
+        <v>283</v>
       </c>
       <c r="C16" s="10"/>
       <c r="D16" s="10"/>
@@ -24665,11 +24490,11 @@
       <c r="J16" s="7"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="64" t="s">
-        <v>440</v>
+      <c r="A17" s="63" t="s">
+        <v>412</v>
       </c>
-      <c r="B17" s="66" t="s">
-        <v>300</v>
+      <c r="B17" s="65" t="s">
+        <v>285</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -24681,11 +24506,11 @@
       <c r="J17" s="7"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="64" t="s">
-        <v>303</v>
+      <c r="A18" s="63" t="s">
+        <v>288</v>
       </c>
-      <c r="B18" s="65" t="s">
-        <v>407</v>
+      <c r="B18" s="64" t="s">
+        <v>380</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -24697,11 +24522,11 @@
       <c r="J18" s="7"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="64" t="s">
-        <v>304</v>
+      <c r="A19" s="63" t="s">
+        <v>289</v>
       </c>
-      <c r="B19" s="65" t="s">
-        <v>302</v>
+      <c r="B19" s="64" t="s">
+        <v>287</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
@@ -24713,11 +24538,11 @@
       <c r="J19" s="7"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="64" t="s">
-        <v>306</v>
+      <c r="A20" s="63" t="s">
+        <v>291</v>
       </c>
-      <c r="B20" s="73" t="s">
-        <v>408</v>
+      <c r="B20" s="71" t="s">
+        <v>381</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -24729,11 +24554,11 @@
       <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="64" t="s">
-        <v>308</v>
+      <c r="A21" s="63" t="s">
+        <v>292</v>
       </c>
-      <c r="B21" s="66" t="s">
-        <v>305</v>
+      <c r="B21" s="65" t="s">
+        <v>290</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -24745,11 +24570,11 @@
       <c r="J21" s="7"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="64" t="s">
-        <v>310</v>
+      <c r="A22" s="63" t="s">
+        <v>294</v>
       </c>
       <c r="B22" s="65" t="s">
-        <v>307</v>
+        <v>293</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10"/>
@@ -24761,11 +24586,11 @@
       <c r="J22" s="7"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="64" t="s">
-        <v>311</v>
+      <c r="A23" s="63" t="s">
+        <v>296</v>
       </c>
-      <c r="B23" s="66" t="s">
-        <v>309</v>
+      <c r="B23" s="65" t="s">
+        <v>376</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -24776,44 +24601,44 @@
       <c r="I23" s="7"/>
       <c r="J23" s="7"/>
     </row>
-    <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="64" t="s">
-        <v>313</v>
+    <row r="24" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="63" t="s">
+        <v>298</v>
       </c>
-      <c r="B24" s="66" t="s">
-        <v>403</v>
+      <c r="B24" s="65" t="s">
+        <v>379</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-      <c r="I24" s="7"/>
-      <c r="J24" s="7"/>
-    </row>
-    <row r="25" spans="1:10" s="16" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="64" t="s">
-        <v>315</v>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="63" t="s">
+        <v>300</v>
       </c>
-      <c r="B25" s="66" t="s">
-        <v>406</v>
+      <c r="B25" s="64" t="s">
+        <v>295</v>
       </c>
       <c r="C25" s="10"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
-      <c r="G25" s="10"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+      <c r="J25" s="7"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="64" t="s">
-        <v>317</v>
+      <c r="A26" s="63" t="s">
+        <v>302</v>
       </c>
       <c r="B26" s="65" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -24825,11 +24650,11 @@
       <c r="J26" s="7"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="64" t="s">
-        <v>319</v>
+      <c r="A27" s="63" t="s">
+        <v>304</v>
       </c>
-      <c r="B27" s="66" t="s">
-        <v>314</v>
+      <c r="B27" s="65" t="s">
+        <v>299</v>
       </c>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
@@ -24841,11 +24666,11 @@
       <c r="J27" s="7"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="64" t="s">
-        <v>321</v>
+      <c r="A28" s="63" t="s">
+        <v>306</v>
       </c>
-      <c r="B28" s="66" t="s">
-        <v>316</v>
+      <c r="B28" s="64" t="s">
+        <v>301</v>
       </c>
       <c r="C28" s="10"/>
       <c r="D28" s="10"/>
@@ -24857,11 +24682,11 @@
       <c r="J28" s="7"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="64" t="s">
-        <v>323</v>
+      <c r="A29" s="63" t="s">
+        <v>308</v>
       </c>
       <c r="B29" s="65" t="s">
-        <v>318</v>
+        <v>303</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -24873,11 +24698,11 @@
       <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="64" t="s">
-        <v>325</v>
+      <c r="A30" s="63" t="s">
+        <v>310</v>
       </c>
-      <c r="B30" s="66" t="s">
-        <v>320</v>
+      <c r="B30" s="64" t="s">
+        <v>305</v>
       </c>
       <c r="C30" s="10"/>
       <c r="D30" s="10"/>
@@ -24889,11 +24714,11 @@
       <c r="J30" s="7"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="64" t="s">
-        <v>327</v>
+      <c r="A31" s="63" t="s">
+        <v>312</v>
       </c>
-      <c r="B31" s="65" t="s">
-        <v>322</v>
+      <c r="B31" s="64" t="s">
+        <v>307</v>
       </c>
       <c r="C31" s="10"/>
       <c r="D31" s="10"/>
@@ -24905,11 +24730,11 @@
       <c r="J31" s="7"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="64" t="s">
-        <v>329</v>
+      <c r="A32" s="63" t="s">
+        <v>314</v>
       </c>
       <c r="B32" s="65" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="C32" s="10"/>
       <c r="D32" s="10"/>
@@ -24921,11 +24746,11 @@
       <c r="J32" s="7"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="64" t="s">
-        <v>331</v>
+      <c r="A33" s="63" t="s">
+        <v>315</v>
       </c>
-      <c r="B33" s="66" t="s">
-        <v>326</v>
+      <c r="B33" s="64" t="s">
+        <v>311</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10"/>
@@ -24936,12 +24761,12 @@
       <c r="I33" s="7"/>
       <c r="J33" s="7"/>
     </row>
-    <row r="34" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="64" t="s">
-        <v>333</v>
+    <row r="34" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="63" t="s">
+        <v>316</v>
       </c>
       <c r="B34" s="65" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
@@ -24952,28 +24777,28 @@
       <c r="I34" s="7"/>
       <c r="J34" s="7"/>
     </row>
-    <row r="35" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64" t="s">
-        <v>335</v>
+    <row r="35" spans="1:10" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="63" t="s">
+        <v>317</v>
       </c>
-      <c r="B35" s="66" t="s">
-        <v>330</v>
+      <c r="B35" s="65" t="s">
+        <v>407</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
-      <c r="G35" s="7"/>
-      <c r="H35" s="7"/>
-      <c r="I35" s="7"/>
-      <c r="J35" s="7"/>
-    </row>
-    <row r="36" spans="1:10" s="70" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64" t="s">
-        <v>337</v>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+    </row>
+    <row r="36" spans="1:10" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="63" t="s">
+        <v>318</v>
       </c>
-      <c r="B36" s="66" t="s">
-        <v>435</v>
+      <c r="B36" s="65" t="s">
+        <v>408</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -24984,12 +24809,12 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" s="70" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="64" t="s">
-        <v>339</v>
+    <row r="37" spans="1:10" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="63" t="s">
+        <v>319</v>
       </c>
-      <c r="B37" s="66" t="s">
-        <v>436</v>
+      <c r="B37" s="65" t="s">
+        <v>411</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
@@ -25000,28 +24825,28 @@
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
     </row>
-    <row r="38" spans="1:10" s="70" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="64" t="s">
-        <v>341</v>
+    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="63" t="s">
+        <v>413</v>
       </c>
-      <c r="B38" s="66" t="s">
-        <v>439</v>
+      <c r="B38" s="65" t="s">
+        <v>320</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="10"/>
-    </row>
-    <row r="39" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="64" t="s">
-        <v>441</v>
+      <c r="G38" s="7"/>
+      <c r="H38" s="7"/>
+      <c r="I38" s="7"/>
+      <c r="J38" s="7"/>
+    </row>
+    <row r="39" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="63" t="s">
+        <v>326</v>
       </c>
       <c r="B39" s="65" t="s">
-        <v>332</v>
+        <v>321</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10"/>
@@ -25032,12 +24857,12 @@
       <c r="I39" s="7"/>
       <c r="J39" s="7"/>
     </row>
-    <row r="40" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A40" s="64" t="s">
-        <v>343</v>
+    <row r="40" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="63" t="s">
+        <v>328</v>
       </c>
-      <c r="B40" s="66" t="s">
-        <v>334</v>
+      <c r="B40" s="65" t="s">
+        <v>322</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10"/>
@@ -25048,12 +24873,12 @@
       <c r="I40" s="7"/>
       <c r="J40" s="7"/>
     </row>
-    <row r="41" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A41" s="64" t="s">
-        <v>346</v>
+    <row r="41" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="63" t="s">
+        <v>330</v>
       </c>
       <c r="B41" s="65" t="s">
-        <v>336</v>
+        <v>323</v>
       </c>
       <c r="C41" s="10"/>
       <c r="D41" s="10"/>
@@ -25064,12 +24889,12 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A42" s="64" t="s">
-        <v>349</v>
+    <row r="42" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="63" t="s">
+        <v>332</v>
       </c>
-      <c r="B42" s="66" t="s">
-        <v>338</v>
+      <c r="B42" s="65" t="s">
+        <v>324</v>
       </c>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
@@ -25080,12 +24905,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="64" t="s">
-        <v>351</v>
+    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="63" t="s">
+        <v>334</v>
       </c>
-      <c r="B43" s="65" t="s">
-        <v>340</v>
+      <c r="B43" s="64" t="s">
+        <v>325</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -25096,12 +24921,12 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="64" t="s">
-        <v>442</v>
+    <row r="44" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="63" t="s">
+        <v>336</v>
       </c>
-      <c r="B44" s="66" t="s">
-        <v>342</v>
+      <c r="B44" s="64" t="s">
+        <v>327</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -25112,12 +24937,12 @@
       <c r="I44" s="7"/>
       <c r="J44" s="7"/>
     </row>
-    <row r="45" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="64" t="s">
-        <v>443</v>
+    <row r="45" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="63" t="s">
+        <v>338</v>
       </c>
-      <c r="B45" s="66" t="s">
-        <v>344</v>
+      <c r="B45" s="65" t="s">
+        <v>329</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -25128,12 +24953,12 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A46" s="64" t="s">
-        <v>353</v>
+    <row r="46" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="63" t="s">
+        <v>340</v>
       </c>
-      <c r="B46" s="66" t="s">
-        <v>345</v>
+      <c r="B46" s="64" t="s">
+        <v>331</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -25145,11 +24970,11 @@
       <c r="J46" s="7"/>
     </row>
     <row r="47" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="64" t="s">
-        <v>355</v>
+      <c r="A47" s="63" t="s">
+        <v>342</v>
       </c>
-      <c r="B47" s="66" t="s">
-        <v>347</v>
+      <c r="B47" s="65" t="s">
+        <v>333</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -25160,12 +24985,12 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A48" s="64" t="s">
-        <v>357</v>
+    <row r="48" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="63" t="s">
+        <v>344</v>
       </c>
-      <c r="B48" s="66" t="s">
-        <v>348</v>
+      <c r="B48" s="64" t="s">
+        <v>335</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -25177,11 +25002,11 @@
       <c r="J48" s="7"/>
     </row>
     <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A49" s="64" t="s">
-        <v>359</v>
+      <c r="A49" s="63" t="s">
+        <v>346</v>
       </c>
-      <c r="B49" s="66" t="s">
-        <v>350</v>
+      <c r="B49" s="65" t="s">
+        <v>337</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -25193,11 +25018,11 @@
       <c r="J49" s="7"/>
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A50" s="64" t="s">
-        <v>361</v>
+      <c r="A50" s="63" t="s">
+        <v>414</v>
       </c>
-      <c r="B50" s="65" t="s">
-        <v>352</v>
+      <c r="B50" s="64" t="s">
+        <v>339</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -25208,12 +25033,12 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A51" s="64" t="s">
-        <v>363</v>
+    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="63" t="s">
+        <v>415</v>
       </c>
       <c r="B51" s="65" t="s">
-        <v>354</v>
+        <v>341</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -25224,12 +25049,12 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A52" s="64" t="s">
-        <v>365</v>
+    <row r="52" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="63" t="s">
+        <v>416</v>
       </c>
-      <c r="B52" s="66" t="s">
-        <v>356</v>
+      <c r="B52" s="64" t="s">
+        <v>343</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -25240,12 +25065,12 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A53" s="64" t="s">
-        <v>367</v>
+    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="63" t="s">
+        <v>417</v>
       </c>
       <c r="B53" s="65" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -25257,11 +25082,11 @@
       <c r="J53" s="7"/>
     </row>
     <row r="54" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A54" s="64" t="s">
-        <v>369</v>
+      <c r="A54" s="63" t="s">
+        <v>348</v>
       </c>
-      <c r="B54" s="66" t="s">
-        <v>360</v>
+      <c r="B54" s="64" t="s">
+        <v>347</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -25272,12 +25097,12 @@
       <c r="I54" s="7"/>
       <c r="J54" s="7"/>
     </row>
-    <row r="55" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="64" t="s">
-        <v>371</v>
+    <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="63" t="s">
+        <v>350</v>
       </c>
-      <c r="B55" s="65" t="s">
-        <v>362</v>
+      <c r="B55" s="64" t="s">
+        <v>349</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -25288,12 +25113,12 @@
       <c r="I55" s="7"/>
       <c r="J55" s="7"/>
     </row>
-    <row r="56" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="64" t="s">
-        <v>373</v>
+    <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="63" t="s">
+        <v>352</v>
       </c>
-      <c r="B56" s="66" t="s">
-        <v>364</v>
+      <c r="B56" s="65" t="s">
+        <v>351</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -25305,11 +25130,11 @@
       <c r="J56" s="7"/>
     </row>
     <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="64" t="s">
-        <v>444</v>
+      <c r="A57" s="63" t="s">
+        <v>354</v>
       </c>
-      <c r="B57" s="65" t="s">
-        <v>366</v>
+      <c r="B57" s="64" t="s">
+        <v>353</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -25321,11 +25146,11 @@
       <c r="J57" s="7"/>
     </row>
     <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="64" t="s">
-        <v>445</v>
+      <c r="A58" s="63" t="s">
+        <v>382</v>
       </c>
-      <c r="B58" s="66" t="s">
-        <v>368</v>
+      <c r="B58" s="71" t="s">
+        <v>385</v>
       </c>
       <c r="C58" s="10"/>
       <c r="D58" s="10"/>
@@ -25336,125 +25161,117 @@
       <c r="I58" s="7"/>
       <c r="J58" s="7"/>
     </row>
-    <row r="59" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="64" t="s">
-        <v>446</v>
+    <row r="59" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A59" s="63" t="s">
+        <v>383</v>
       </c>
       <c r="B59" s="65" t="s">
-        <v>370</v>
+        <v>386</v>
       </c>
-      <c r="C59" s="10"/>
-      <c r="D59" s="10"/>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
+      <c r="C59" s="7"/>
+      <c r="D59" s="7"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7"/>
       <c r="G59" s="7"/>
       <c r="H59" s="7"/>
       <c r="I59" s="7"/>
       <c r="J59" s="7"/>
     </row>
-    <row r="60" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="64" t="s">
-        <v>447</v>
+    <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="63" t="s">
+        <v>384</v>
       </c>
-      <c r="B60" s="66" t="s">
-        <v>372</v>
+      <c r="B60" s="64" t="s">
+        <v>387</v>
       </c>
-      <c r="C60" s="10"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7"/>
       <c r="G60" s="7"/>
       <c r="H60" s="7"/>
       <c r="I60" s="7"/>
       <c r="J60" s="7"/>
     </row>
-    <row r="61" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="64" t="s">
-        <v>375</v>
+    <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A61" s="63" t="s">
+        <v>392</v>
       </c>
       <c r="B61" s="65" t="s">
-        <v>374</v>
+        <v>388</v>
       </c>
-      <c r="C61" s="10"/>
-      <c r="D61" s="10"/>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
+      <c r="C61" s="7"/>
+      <c r="D61" s="7"/>
+      <c r="E61" s="7"/>
+      <c r="F61" s="7"/>
       <c r="G61" s="7"/>
       <c r="H61" s="7"/>
       <c r="I61" s="7"/>
       <c r="J61" s="7"/>
     </row>
-    <row r="62" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="64" t="s">
-        <v>377</v>
+    <row r="62" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A62" s="63" t="s">
+        <v>400</v>
       </c>
-      <c r="B62" s="65" t="s">
-        <v>376</v>
+      <c r="B62" s="74" t="s">
+        <v>393</v>
       </c>
-      <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
+      <c r="E62" s="7"/>
+      <c r="F62" s="7"/>
       <c r="G62" s="7"/>
       <c r="H62" s="7"/>
       <c r="I62" s="7"/>
       <c r="J62" s="7"/>
     </row>
-    <row r="63" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A63" s="64" t="s">
-        <v>379</v>
+    <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A63" s="63" t="s">
+        <v>401</v>
       </c>
-      <c r="B63" s="66" t="s">
-        <v>378</v>
+      <c r="B63" s="75" t="s">
+        <v>398</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7"/>
       <c r="G63" s="7"/>
       <c r="H63" s="7"/>
       <c r="I63" s="7"/>
       <c r="J63" s="7"/>
     </row>
-    <row r="64" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="64" t="s">
-        <v>381</v>
+    <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A64" s="63" t="s">
+        <v>425</v>
       </c>
-      <c r="B64" s="65" t="s">
-        <v>380</v>
+      <c r="B64" s="74" t="s">
+        <v>399</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10"/>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7"/>
       <c r="G64" s="7"/>
       <c r="H64" s="7"/>
       <c r="I64" s="7"/>
       <c r="J64" s="7"/>
     </row>
-    <row r="65" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A65" s="64" t="s">
-        <v>409</v>
-      </c>
-      <c r="B65" s="73" t="s">
-        <v>412</v>
-      </c>
-      <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
+    <row r="65" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A65" s="7"/>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
       <c r="G65" s="7"/>
       <c r="H65" s="7"/>
       <c r="I65" s="7"/>
       <c r="J65" s="7"/>
     </row>
     <row r="66" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A66" s="64" t="s">
-        <v>410</v>
-      </c>
-      <c r="B66" s="66" t="s">
-        <v>413</v>
-      </c>
+      <c r="A66" s="7"/>
+      <c r="B66" s="7"/>
       <c r="C66" s="7"/>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
@@ -25465,12 +25282,8 @@
       <c r="J66" s="7"/>
     </row>
     <row r="67" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A67" s="64" t="s">
-        <v>411</v>
-      </c>
-      <c r="B67" s="65" t="s">
-        <v>414</v>
-      </c>
+      <c r="A67" s="7"/>
+      <c r="B67" s="7"/>
       <c r="C67" s="7"/>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
@@ -25481,12 +25294,8 @@
       <c r="J67" s="7"/>
     </row>
     <row r="68" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A68" s="64" t="s">
-        <v>419</v>
-      </c>
-      <c r="B68" s="66" t="s">
-        <v>415</v>
-      </c>
+      <c r="A68" s="7"/>
+      <c r="B68" s="7"/>
       <c r="C68" s="7"/>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
@@ -25497,12 +25306,8 @@
       <c r="J68" s="7"/>
     </row>
     <row r="69" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A69" s="64" t="s">
-        <v>428</v>
-      </c>
-      <c r="B69" s="78" t="s">
-        <v>420</v>
-      </c>
+      <c r="A69" s="7"/>
+      <c r="B69" s="7"/>
       <c r="C69" s="7"/>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
@@ -25513,12 +25318,8 @@
       <c r="J69" s="7"/>
     </row>
     <row r="70" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A70" s="64" t="s">
-        <v>429</v>
-      </c>
-      <c r="B70" s="79" t="s">
-        <v>426</v>
-      </c>
+      <c r="A70" s="7"/>
+      <c r="B70" s="7"/>
       <c r="C70" s="7"/>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
@@ -25529,12 +25330,8 @@
       <c r="J70" s="7"/>
     </row>
     <row r="71" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A71" s="64" t="s">
-        <v>455</v>
-      </c>
-      <c r="B71" s="78" t="s">
-        <v>427</v>
-      </c>
+      <c r="A71" s="7"/>
+      <c r="B71" s="7"/>
       <c r="C71" s="7"/>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
@@ -36667,90 +36464,6 @@
       <c r="H998" s="7"/>
       <c r="I998" s="7"/>
       <c r="J998" s="7"/>
-    </row>
-    <row r="999" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A999" s="7"/>
-      <c r="B999" s="7"/>
-      <c r="C999" s="7"/>
-      <c r="D999" s="7"/>
-      <c r="E999" s="7"/>
-      <c r="F999" s="7"/>
-      <c r="G999" s="7"/>
-      <c r="H999" s="7"/>
-      <c r="I999" s="7"/>
-      <c r="J999" s="7"/>
-    </row>
-    <row r="1000" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1000" s="7"/>
-      <c r="B1000" s="7"/>
-      <c r="C1000" s="7"/>
-      <c r="D1000" s="7"/>
-      <c r="E1000" s="7"/>
-      <c r="F1000" s="7"/>
-      <c r="G1000" s="7"/>
-      <c r="H1000" s="7"/>
-      <c r="I1000" s="7"/>
-      <c r="J1000" s="7"/>
-    </row>
-    <row r="1001" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1001" s="7"/>
-      <c r="B1001" s="7"/>
-      <c r="C1001" s="7"/>
-      <c r="D1001" s="7"/>
-      <c r="E1001" s="7"/>
-      <c r="F1001" s="7"/>
-      <c r="G1001" s="7"/>
-      <c r="H1001" s="7"/>
-      <c r="I1001" s="7"/>
-      <c r="J1001" s="7"/>
-    </row>
-    <row r="1002" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1002" s="7"/>
-      <c r="B1002" s="7"/>
-      <c r="C1002" s="7"/>
-      <c r="D1002" s="7"/>
-      <c r="E1002" s="7"/>
-      <c r="F1002" s="7"/>
-      <c r="G1002" s="7"/>
-      <c r="H1002" s="7"/>
-      <c r="I1002" s="7"/>
-      <c r="J1002" s="7"/>
-    </row>
-    <row r="1003" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1003" s="7"/>
-      <c r="B1003" s="7"/>
-      <c r="C1003" s="7"/>
-      <c r="D1003" s="7"/>
-      <c r="E1003" s="7"/>
-      <c r="F1003" s="7"/>
-      <c r="G1003" s="7"/>
-      <c r="H1003" s="7"/>
-      <c r="I1003" s="7"/>
-      <c r="J1003" s="7"/>
-    </row>
-    <row r="1004" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1004" s="7"/>
-      <c r="B1004" s="7"/>
-      <c r="C1004" s="7"/>
-      <c r="D1004" s="7"/>
-      <c r="E1004" s="7"/>
-      <c r="F1004" s="7"/>
-      <c r="G1004" s="7"/>
-      <c r="H1004" s="7"/>
-      <c r="I1004" s="7"/>
-      <c r="J1004" s="7"/>
-    </row>
-    <row r="1005" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1005" s="7"/>
-      <c r="B1005" s="7"/>
-      <c r="C1005" s="7"/>
-      <c r="D1005" s="7"/>
-      <c r="E1005" s="7"/>
-      <c r="F1005" s="7"/>
-      <c r="G1005" s="7"/>
-      <c r="H1005" s="7"/>
-      <c r="I1005" s="7"/>
-      <c r="J1005" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36800,11 +36513,11 @@
       <c r="L2" s="7"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="67" t="s">
+      <c r="A3" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="67" t="s">
-        <v>382</v>
+      <c r="B3" s="66" t="s">
+        <v>355</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -36819,10 +36532,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>383</v>
+        <v>356</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>384</v>
+        <v>357</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -36836,11 +36549,11 @@
       <c r="L4" s="7"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="68" t="s">
-        <v>385</v>
+      <c r="A5" s="67" t="s">
+        <v>358</v>
       </c>
-      <c r="B5" s="68" t="s">
-        <v>386</v>
+      <c r="B5" s="67" t="s">
+        <v>359</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -36855,10 +36568,10 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>387</v>
+        <v>360</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -36872,11 +36585,11 @@
       <c r="L6" s="7"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="68" t="s">
-        <v>389</v>
+      <c r="A7" s="67" t="s">
+        <v>362</v>
       </c>
-      <c r="B7" s="68" t="s">
-        <v>390</v>
+      <c r="B7" s="67" t="s">
+        <v>363</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -36891,10 +36604,10 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -36909,10 +36622,10 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -36928,7 +36641,7 @@
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="6" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>

--- a/Requisitos/RequisitosProestheticVersionBeta.xlsx.xlsx.xlsx
+++ b/Requisitos/RequisitosProestheticVersionBeta.xlsx.xlsx.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17668"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17766"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -1725,14 +1725,17 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="21" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1770,7 +1773,10 @@
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1792,6 +1798,9 @@
     <xf numFmtId="0" fontId="3" fillId="27" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1800,15 +1809,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2156,7 +2156,7 @@
   <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+      <selection activeCell="B61" sqref="B61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2181,7 +2181,7 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="79" t="s">
+      <c r="C2" s="94" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="17"/>
@@ -2193,7 +2193,7 @@
       <c r="B3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="104"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2203,7 +2203,7 @@
       <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="104"/>
+      <c r="C4" s="95"/>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2213,7 +2213,7 @@
       <c r="B5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="104"/>
+      <c r="C5" s="95"/>
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2223,7 +2223,7 @@
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="104"/>
+      <c r="C6" s="95"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2233,7 +2233,7 @@
       <c r="B7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="104"/>
+      <c r="C7" s="95"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2243,7 +2243,7 @@
       <c r="B8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="104"/>
+      <c r="C8" s="95"/>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2253,7 +2253,7 @@
       <c r="B9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="104"/>
+      <c r="C9" s="95"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2263,7 +2263,7 @@
       <c r="B10" s="25" t="s">
         <v>419</v>
       </c>
-      <c r="C10" s="104"/>
+      <c r="C10" s="95"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2273,7 +2273,7 @@
       <c r="B11" s="25" t="s">
         <v>420</v>
       </c>
-      <c r="C11" s="104"/>
+      <c r="C11" s="95"/>
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2283,7 +2283,7 @@
       <c r="B12" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="76" t="s">
+      <c r="C12" s="78" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="17"/>
@@ -2295,7 +2295,7 @@
       <c r="B13" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="77"/>
+      <c r="C13" s="79"/>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2305,7 +2305,7 @@
       <c r="B14" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="77"/>
+      <c r="C14" s="79"/>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,7 +2315,7 @@
       <c r="B15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="77"/>
+      <c r="C15" s="79"/>
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2325,7 +2325,7 @@
       <c r="B16" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="78"/>
+      <c r="C16" s="80"/>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2335,7 +2335,7 @@
       <c r="B17" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="85" t="s">
+      <c r="C17" s="86" t="s">
         <v>87</v>
       </c>
       <c r="D17" s="23" t="s">
@@ -2349,7 +2349,7 @@
       <c r="B18" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="86"/>
+      <c r="C18" s="87"/>
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2359,7 +2359,7 @@
       <c r="B19" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="86"/>
+      <c r="C19" s="87"/>
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2369,7 +2369,7 @@
       <c r="B20" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="86"/>
+      <c r="C20" s="87"/>
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
       <c r="B21" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="86"/>
+      <c r="C21" s="87"/>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2389,7 +2389,7 @@
       <c r="B22" s="72" t="s">
         <v>418</v>
       </c>
-      <c r="C22" s="86"/>
+      <c r="C22" s="87"/>
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2399,7 +2399,7 @@
       <c r="B23" s="36" t="s">
         <v>378</v>
       </c>
-      <c r="C23" s="87"/>
+      <c r="C23" s="88"/>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2409,7 +2409,7 @@
       <c r="B24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="90" t="s">
+      <c r="C24" s="91" t="s">
         <v>113</v>
       </c>
       <c r="D24" s="17"/>
@@ -2421,7 +2421,7 @@
       <c r="B25" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="77"/>
+      <c r="C25" s="79"/>
       <c r="D25" s="17"/>
       <c r="E25" s="23"/>
     </row>
@@ -2432,7 +2432,7 @@
       <c r="B26" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="77"/>
+      <c r="C26" s="79"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2442,7 +2442,7 @@
       <c r="B27" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="78"/>
+      <c r="C27" s="80"/>
       <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2452,7 +2452,7 @@
       <c r="B28" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="81" t="s">
         <v>403</v>
       </c>
       <c r="D28" s="17"/>
@@ -2464,7 +2464,7 @@
       <c r="B29" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="81"/>
+      <c r="C29" s="82"/>
       <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2474,7 +2474,7 @@
       <c r="B30" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="81"/>
+      <c r="C30" s="82"/>
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2484,7 +2484,7 @@
       <c r="B31" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="81"/>
+      <c r="C31" s="82"/>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2494,7 +2494,7 @@
       <c r="B32" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="81"/>
+      <c r="C32" s="82"/>
       <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2504,7 +2504,7 @@
       <c r="B33" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="81"/>
+      <c r="C33" s="82"/>
       <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2514,7 +2514,7 @@
       <c r="B34" s="45" t="s">
         <v>406</v>
       </c>
-      <c r="C34" s="81"/>
+      <c r="C34" s="82"/>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2524,7 +2524,7 @@
       <c r="B35" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="C35" s="81"/>
+      <c r="C35" s="82"/>
       <c r="D35" s="23"/>
     </row>
     <row r="36" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2534,7 +2534,7 @@
       <c r="B36" s="45" t="s">
         <v>409</v>
       </c>
-      <c r="C36" s="82"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="23"/>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2544,7 +2544,7 @@
       <c r="B37" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="C37" s="92" t="s">
+      <c r="C37" s="93" t="s">
         <v>167</v>
       </c>
       <c r="D37" s="17"/>
@@ -2556,7 +2556,7 @@
       <c r="B38" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="C38" s="77"/>
+      <c r="C38" s="79"/>
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2566,7 +2566,7 @@
       <c r="B39" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="C39" s="77"/>
+      <c r="C39" s="79"/>
       <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
       <c r="B40" s="34" t="s">
         <v>174</v>
       </c>
-      <c r="C40" s="77"/>
+      <c r="C40" s="79"/>
       <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2586,7 +2586,7 @@
       <c r="B41" s="34" t="s">
         <v>176</v>
       </c>
-      <c r="C41" s="77"/>
+      <c r="C41" s="79"/>
       <c r="D41" s="17"/>
     </row>
     <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2596,7 +2596,7 @@
       <c r="B42" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="78"/>
+      <c r="C42" s="80"/>
       <c r="D42" s="17"/>
     </row>
     <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2606,7 +2606,7 @@
       <c r="B43" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="88" t="s">
+      <c r="C43" s="89" t="s">
         <v>195</v>
       </c>
       <c r="D43" s="17"/>
@@ -2618,7 +2618,7 @@
       <c r="B44" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="77"/>
+      <c r="C44" s="79"/>
       <c r="D44" s="17"/>
     </row>
     <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2628,7 +2628,7 @@
       <c r="B45" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="77"/>
+      <c r="C45" s="79"/>
       <c r="D45" s="17"/>
     </row>
     <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2638,7 +2638,7 @@
       <c r="B46" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="77"/>
+      <c r="C46" s="79"/>
       <c r="D46" s="17"/>
     </row>
     <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2648,7 +2648,7 @@
       <c r="B47" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="77"/>
+      <c r="C47" s="79"/>
       <c r="D47" s="17"/>
     </row>
     <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2658,7 +2658,7 @@
       <c r="B48" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="C48" s="77"/>
+      <c r="C48" s="79"/>
       <c r="D48" s="17"/>
     </row>
     <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2668,7 +2668,7 @@
       <c r="B49" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="78"/>
+      <c r="C49" s="80"/>
       <c r="D49" s="17"/>
     </row>
     <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2678,7 +2678,7 @@
       <c r="B50" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="91" t="s">
+      <c r="C50" s="92" t="s">
         <v>218</v>
       </c>
       <c r="D50" s="17"/>
@@ -2690,7 +2690,7 @@
       <c r="B51" s="54" t="s">
         <v>224</v>
       </c>
-      <c r="C51" s="77"/>
+      <c r="C51" s="79"/>
       <c r="D51" s="17"/>
     </row>
     <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2700,7 +2700,7 @@
       <c r="B52" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C52" s="77"/>
+      <c r="C52" s="79"/>
       <c r="D52" s="17"/>
     </row>
     <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2710,7 +2710,7 @@
       <c r="B53" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C53" s="78"/>
+      <c r="C53" s="80"/>
       <c r="D53" s="17"/>
     </row>
     <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2720,7 +2720,7 @@
       <c r="B54" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="C54" s="89" t="s">
+      <c r="C54" s="90" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2731,7 +2731,7 @@
       <c r="B55" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C55" s="77"/>
+      <c r="C55" s="79"/>
     </row>
     <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A56" s="55" t="s">
@@ -2740,7 +2740,7 @@
       <c r="B56" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="C56" s="77"/>
+      <c r="C56" s="79"/>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="69" t="s">
@@ -2749,7 +2749,7 @@
       <c r="B57" s="69" t="s">
         <v>373</v>
       </c>
-      <c r="C57" s="83" t="s">
+      <c r="C57" s="84" t="s">
         <v>389</v>
       </c>
     </row>
@@ -2760,7 +2760,7 @@
       <c r="B58" s="70" t="s">
         <v>374</v>
       </c>
-      <c r="C58" s="84"/>
+      <c r="C58" s="85"/>
     </row>
     <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="69" t="s">
@@ -2769,7 +2769,7 @@
       <c r="B59" s="69" t="s">
         <v>375</v>
       </c>
-      <c r="C59" s="84"/>
+      <c r="C59" s="85"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="73" t="s">
@@ -2778,7 +2778,7 @@
       <c r="B60" s="73" t="s">
         <v>426</v>
       </c>
-      <c r="C60" s="105" t="s">
+      <c r="C60" s="76" t="s">
         <v>391</v>
       </c>
     </row>
@@ -2789,7 +2789,7 @@
       <c r="B61" t="s">
         <v>395</v>
       </c>
-      <c r="C61" s="106"/>
+      <c r="C61" s="77"/>
     </row>
     <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="73" t="s">
@@ -2798,10 +2798,11 @@
       <c r="B62" t="s">
         <v>396</v>
       </c>
-      <c r="C62" s="106"/>
+      <c r="C62" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="C2:C11"/>
     <mergeCell ref="C60:C62"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="C28:C36"/>
@@ -2812,7 +2813,6 @@
     <mergeCell ref="C24:C27"/>
     <mergeCell ref="C50:C53"/>
     <mergeCell ref="C37:C42"/>
-    <mergeCell ref="C2:C11"/>
   </mergeCells>
   <conditionalFormatting sqref="A43:C43 A45:B45 A47:B47 A49:B49">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
@@ -2858,10 +2858,10 @@
       <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="100" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="94">
+      <c r="D2" s="96">
         <v>1</v>
       </c>
       <c r="E2" s="7"/>
@@ -2873,8 +2873,8 @@
       <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="77"/>
-      <c r="D3" s="95"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="97"/>
       <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2884,8 +2884,8 @@
       <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="77"/>
-      <c r="D4" s="95"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="97"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,8 +2895,8 @@
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="77"/>
-      <c r="D5" s="95"/>
+      <c r="C5" s="79"/>
+      <c r="D5" s="97"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
       </c>
@@ -2908,8 +2908,8 @@
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="95"/>
+      <c r="C6" s="79"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2919,8 +2919,8 @@
       <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="78"/>
-      <c r="D7" s="95"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="97"/>
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2930,10 +2930,10 @@
       <c r="B8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="79" t="s">
+      <c r="C8" s="94" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="94">
+      <c r="D8" s="96">
         <v>2</v>
       </c>
       <c r="E8" s="7"/>
@@ -2945,8 +2945,8 @@
       <c r="B9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="77"/>
-      <c r="D9" s="95"/>
+      <c r="C9" s="79"/>
+      <c r="D9" s="97"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2956,8 +2956,8 @@
       <c r="B10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="77"/>
-      <c r="D10" s="95"/>
+      <c r="C10" s="79"/>
+      <c r="D10" s="97"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2967,8 +2967,8 @@
       <c r="B11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="77"/>
-      <c r="D11" s="95"/>
+      <c r="C11" s="79"/>
+      <c r="D11" s="97"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2978,8 +2978,8 @@
       <c r="B12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="77"/>
-      <c r="D12" s="95"/>
+      <c r="C12" s="79"/>
+      <c r="D12" s="97"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2989,8 +2989,8 @@
       <c r="B13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="78"/>
-      <c r="D13" s="95"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="97"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3000,10 +3000,10 @@
       <c r="B14" s="33" t="s">
         <v>84</v>
       </c>
-      <c r="C14" s="99" t="s">
+      <c r="C14" s="101" t="s">
         <v>86</v>
       </c>
-      <c r="D14" s="94">
+      <c r="D14" s="96">
         <v>3</v>
       </c>
       <c r="E14" s="7"/>
@@ -3015,8 +3015,8 @@
       <c r="B15" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="77"/>
-      <c r="D15" s="95"/>
+      <c r="C15" s="79"/>
+      <c r="D15" s="97"/>
       <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3026,8 +3026,8 @@
       <c r="B16" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="77"/>
-      <c r="D16" s="95"/>
+      <c r="C16" s="79"/>
+      <c r="D16" s="97"/>
       <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3037,8 +3037,8 @@
       <c r="B17" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="77"/>
-      <c r="D17" s="95"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="97"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3048,8 +3048,8 @@
       <c r="B18" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="77"/>
-      <c r="D18" s="95"/>
+      <c r="C18" s="79"/>
+      <c r="D18" s="97"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3059,8 +3059,8 @@
       <c r="B19" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="77"/>
-      <c r="D19" s="95"/>
+      <c r="C19" s="79"/>
+      <c r="D19" s="97"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3070,8 +3070,8 @@
       <c r="B20" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="77"/>
-      <c r="D20" s="95"/>
+      <c r="C20" s="79"/>
+      <c r="D20" s="97"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3081,8 +3081,8 @@
       <c r="B21" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="77"/>
-      <c r="D21" s="95"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="97"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3092,10 +3092,10 @@
       <c r="B22" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="97" t="s">
+      <c r="C22" s="99" t="s">
         <v>114</v>
       </c>
-      <c r="D22" s="94">
+      <c r="D22" s="96">
         <v>6</v>
       </c>
       <c r="E22" s="7"/>
@@ -3107,8 +3107,8 @@
       <c r="B23" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="77"/>
-      <c r="D23" s="95"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="97"/>
       <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3118,8 +3118,8 @@
       <c r="B24" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="77"/>
-      <c r="D24" s="95"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="97"/>
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3129,8 +3129,8 @@
       <c r="B25" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="77"/>
-      <c r="D25" s="95"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="97"/>
       <c r="E25" s="16" t="s">
         <v>128</v>
       </c>
@@ -3142,8 +3142,8 @@
       <c r="B26" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="77"/>
-      <c r="D26" s="95"/>
+      <c r="C26" s="79"/>
+      <c r="D26" s="97"/>
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3153,8 +3153,8 @@
       <c r="B27" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="77"/>
-      <c r="D27" s="95"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="97"/>
       <c r="E27" s="7"/>
     </row>
     <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3164,8 +3164,8 @@
       <c r="B28" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="95"/>
+      <c r="C28" s="79"/>
+      <c r="D28" s="97"/>
       <c r="E28" s="7"/>
     </row>
     <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3175,10 +3175,10 @@
       <c r="B29" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="85" t="s">
+      <c r="C29" s="86" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="94">
+      <c r="D29" s="96">
         <v>4</v>
       </c>
       <c r="E29" s="7"/>
@@ -3190,8 +3190,8 @@
       <c r="B30" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="95"/>
+      <c r="C30" s="79"/>
+      <c r="D30" s="97"/>
       <c r="E30" s="7"/>
     </row>
     <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3201,8 +3201,8 @@
       <c r="B31" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="77"/>
-      <c r="D31" s="95"/>
+      <c r="C31" s="79"/>
+      <c r="D31" s="97"/>
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3212,8 +3212,8 @@
       <c r="B32" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="77"/>
-      <c r="D32" s="95"/>
+      <c r="C32" s="79"/>
+      <c r="D32" s="97"/>
       <c r="E32" s="16" t="s">
         <v>128</v>
       </c>
@@ -3225,8 +3225,8 @@
       <c r="B33" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="77"/>
-      <c r="D33" s="95"/>
+      <c r="C33" s="79"/>
+      <c r="D33" s="97"/>
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3236,8 +3236,8 @@
       <c r="B34" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="77"/>
-      <c r="D34" s="95"/>
+      <c r="C34" s="79"/>
+      <c r="D34" s="97"/>
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3247,8 +3247,8 @@
       <c r="B35" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="77"/>
-      <c r="D35" s="95"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="97"/>
       <c r="E35" s="7"/>
     </row>
     <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3258,8 +3258,8 @@
       <c r="B36" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="77"/>
-      <c r="D36" s="94">
+      <c r="C36" s="79"/>
+      <c r="D36" s="96">
         <v>5</v>
       </c>
       <c r="E36" s="7"/>
@@ -3271,10 +3271,10 @@
       <c r="B37" s="47" t="s">
         <v>164</v>
       </c>
-      <c r="C37" s="93" t="s">
+      <c r="C37" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="D37" s="95"/>
+      <c r="D37" s="97"/>
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3284,8 +3284,8 @@
       <c r="B38" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="77"/>
-      <c r="D38" s="95"/>
+      <c r="C38" s="79"/>
+      <c r="D38" s="97"/>
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3295,8 +3295,8 @@
       <c r="B39" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="77"/>
-      <c r="D39" s="95"/>
+      <c r="C39" s="79"/>
+      <c r="D39" s="97"/>
       <c r="E39" s="16" t="s">
         <v>184</v>
       </c>
@@ -3308,8 +3308,8 @@
       <c r="B40" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="77"/>
-      <c r="D40" s="95"/>
+      <c r="C40" s="79"/>
+      <c r="D40" s="97"/>
       <c r="E40" s="7"/>
     </row>
     <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3319,8 +3319,8 @@
       <c r="B41" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="77"/>
-      <c r="D41" s="95"/>
+      <c r="C41" s="79"/>
+      <c r="D41" s="97"/>
       <c r="E41" s="7"/>
     </row>
     <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3330,8 +3330,8 @@
       <c r="B42" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="77"/>
-      <c r="D42" s="95"/>
+      <c r="C42" s="79"/>
+      <c r="D42" s="97"/>
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3341,10 +3341,10 @@
       <c r="B43" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C43" s="92" t="s">
+      <c r="C43" s="93" t="s">
         <v>193</v>
       </c>
-      <c r="D43" s="94">
+      <c r="D43" s="96">
         <v>7</v>
       </c>
       <c r="E43" s="7"/>
@@ -3356,8 +3356,8 @@
       <c r="B44" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="77"/>
-      <c r="D44" s="95"/>
+      <c r="C44" s="79"/>
+      <c r="D44" s="97"/>
       <c r="E44" s="7"/>
     </row>
     <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3367,8 +3367,8 @@
       <c r="B45" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C45" s="77"/>
-      <c r="D45" s="95"/>
+      <c r="C45" s="79"/>
+      <c r="D45" s="97"/>
       <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3378,8 +3378,8 @@
       <c r="B46" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="77"/>
-      <c r="D46" s="95"/>
+      <c r="C46" s="79"/>
+      <c r="D46" s="97"/>
       <c r="E46" s="7"/>
     </row>
     <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3389,8 +3389,8 @@
       <c r="B47" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C47" s="77"/>
-      <c r="D47" s="95"/>
+      <c r="C47" s="79"/>
+      <c r="D47" s="97"/>
       <c r="E47" s="7"/>
     </row>
     <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3400,8 +3400,8 @@
       <c r="B48" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="95"/>
+      <c r="C48" s="79"/>
+      <c r="D48" s="97"/>
       <c r="E48" s="7"/>
     </row>
     <row r="49" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3411,10 +3411,10 @@
       <c r="B49" s="53" t="s">
         <v>221</v>
       </c>
-      <c r="C49" s="100" t="s">
+      <c r="C49" s="102" t="s">
         <v>223</v>
       </c>
-      <c r="D49" s="94">
+      <c r="D49" s="96">
         <v>8</v>
       </c>
       <c r="E49" s="7"/>
@@ -3426,8 +3426,8 @@
       <c r="B50" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="77"/>
-      <c r="D50" s="95"/>
+      <c r="C50" s="79"/>
+      <c r="D50" s="97"/>
       <c r="E50" s="7"/>
     </row>
     <row r="51" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3437,8 +3437,8 @@
       <c r="B51" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="77"/>
-      <c r="D51" s="95"/>
+      <c r="C51" s="79"/>
+      <c r="D51" s="97"/>
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3448,8 +3448,8 @@
       <c r="B52" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="77"/>
-      <c r="D52" s="95"/>
+      <c r="C52" s="79"/>
+      <c r="D52" s="97"/>
       <c r="E52" s="7"/>
     </row>
     <row r="53" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3459,8 +3459,8 @@
       <c r="B53" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="C53" s="77"/>
-      <c r="D53" s="95"/>
+      <c r="C53" s="79"/>
+      <c r="D53" s="97"/>
       <c r="E53" s="7"/>
     </row>
     <row r="54" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3470,8 +3470,8 @@
       <c r="B54" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="78"/>
-      <c r="D54" s="95"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="97"/>
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3481,10 +3481,10 @@
       <c r="B55" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="C55" s="96" t="s">
+      <c r="C55" s="98" t="s">
         <v>246</v>
       </c>
-      <c r="D55" s="94">
+      <c r="D55" s="96">
         <v>9</v>
       </c>
       <c r="E55" s="7"/>
@@ -3496,8 +3496,8 @@
       <c r="B56" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="77"/>
-      <c r="D56" s="95"/>
+      <c r="C56" s="79"/>
+      <c r="D56" s="97"/>
       <c r="E56" s="7"/>
     </row>
     <row r="57" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3507,8 +3507,8 @@
       <c r="B57" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="77"/>
-      <c r="D57" s="95"/>
+      <c r="C57" s="79"/>
+      <c r="D57" s="97"/>
       <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3518,8 +3518,8 @@
       <c r="B58" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="77"/>
-      <c r="D58" s="95"/>
+      <c r="C58" s="79"/>
+      <c r="D58" s="97"/>
       <c r="E58" s="16" t="s">
         <v>253</v>
       </c>
@@ -3531,8 +3531,8 @@
       <c r="B59" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="77"/>
-      <c r="D59" s="95"/>
+      <c r="C59" s="79"/>
+      <c r="D59" s="97"/>
       <c r="E59" s="7"/>
     </row>
     <row r="60" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3542,8 +3542,8 @@
       <c r="B60" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="C60" s="78"/>
-      <c r="D60" s="95"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="97"/>
       <c r="E60" s="7"/>
     </row>
     <row r="61" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -10128,6 +10128,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="D29:D35"/>
+    <mergeCell ref="D2:D7"/>
     <mergeCell ref="D55:D60"/>
     <mergeCell ref="C55:C60"/>
     <mergeCell ref="C22:C28"/>
@@ -10144,8 +10146,6 @@
     <mergeCell ref="C43:C48"/>
     <mergeCell ref="C37:C42"/>
     <mergeCell ref="D49:D54"/>
-    <mergeCell ref="D29:D35"/>
-    <mergeCell ref="D2:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="B49:C49 B51 B53">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -10199,7 +10199,7 @@
       <c r="B2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="105" t="s">
         <v>13</v>
       </c>
       <c r="D2" s="10"/>
@@ -10219,7 +10219,7 @@
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="78"/>
+      <c r="C3" s="80"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -10237,7 +10237,7 @@
       <c r="B4" s="15" t="s">
         <v>24</v>
       </c>
-      <c r="C4" s="101" t="s">
+      <c r="C4" s="104" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="10"/>
@@ -10257,7 +10257,7 @@
       <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="77"/>
+      <c r="C5" s="79"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -10275,7 +10275,7 @@
       <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="78"/>
+      <c r="C6" s="80"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -10293,7 +10293,7 @@
       <c r="B7" s="24" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="103" t="s">
+      <c r="C7" s="106" t="s">
         <v>47</v>
       </c>
       <c r="D7" s="10"/>
@@ -10313,7 +10313,7 @@
       <c r="B8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="77"/>
+      <c r="C8" s="79"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -10331,7 +10331,7 @@
       <c r="B9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="77"/>
+      <c r="C9" s="79"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -10349,7 +10349,7 @@
       <c r="B10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="78"/>
+      <c r="C10" s="80"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>

--- a/Requisitos/RequisitosProestheticVersionBeta.xlsx.xlsx.xlsx
+++ b/Requisitos/RequisitosProestheticVersionBeta.xlsx.xlsx.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="RF 02 V&quot;" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="423">
   <si>
     <t>Código</t>
   </si>
@@ -976,9 +976,6 @@
     <t>RI035</t>
   </si>
   <si>
-    <t>RI036</t>
-  </si>
-  <si>
     <t>RI037</t>
   </si>
   <si>
@@ -1231,9 +1228,6 @@
     <t>RI071</t>
   </si>
   <si>
-    <t>RF5.7</t>
-  </si>
-  <si>
     <t>Usuario-Empleado RF5</t>
   </si>
   <si>
@@ -1241,12 +1235,6 @@
   </si>
   <si>
     <t>El sistema permitirá al administrador seleccionar tipo de usuario</t>
-  </si>
-  <si>
-    <t>El sistema permitirá al administrador asociar una clinica a un usuario</t>
-  </si>
-  <si>
-    <t>Para que se cumpla el RF5.7 se debe cumplir el RF5.8 y seleccionar usuario</t>
   </si>
   <si>
     <t>Para que se cumpla el RF5.8 seleccionar la opción</t>
@@ -1725,6 +1713,12 @@
     <xf numFmtId="0" fontId="3" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1771,12 +1765,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2153,10 +2141,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="B61" sqref="B61"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2181,7 +2169,7 @@
       <c r="B2" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="94" t="s">
+      <c r="C2" s="76" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="17"/>
@@ -2193,7 +2181,7 @@
       <c r="B3" s="21" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="95"/>
+      <c r="C3" s="77"/>
       <c r="D3" s="17"/>
     </row>
     <row r="4" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2203,7 +2191,7 @@
       <c r="B4" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="95"/>
+      <c r="C4" s="77"/>
       <c r="D4" s="17"/>
     </row>
     <row r="5" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2213,7 +2201,7 @@
       <c r="B5" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="95"/>
+      <c r="C5" s="77"/>
       <c r="D5" s="23"/>
     </row>
     <row r="6" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2223,7 +2211,7 @@
       <c r="B6" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="95"/>
+      <c r="C6" s="77"/>
       <c r="D6" s="17"/>
     </row>
     <row r="7" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2233,7 +2221,7 @@
       <c r="B7" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="C7" s="95"/>
+      <c r="C7" s="77"/>
       <c r="D7" s="17"/>
     </row>
     <row r="8" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2243,7 +2231,7 @@
       <c r="B8" s="25" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="95"/>
+      <c r="C8" s="77"/>
       <c r="D8" s="17"/>
     </row>
     <row r="9" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2253,27 +2241,27 @@
       <c r="B9" s="25" t="s">
         <v>54</v>
       </c>
-      <c r="C9" s="95"/>
+      <c r="C9" s="77"/>
       <c r="D9" s="17"/>
     </row>
     <row r="10" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="26" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="B10" s="25" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
-      <c r="C10" s="95"/>
+      <c r="C10" s="77"/>
       <c r="D10" s="23"/>
     </row>
     <row r="11" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="26" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
-      <c r="C11" s="95"/>
+      <c r="C11" s="77"/>
       <c r="D11" s="23"/>
     </row>
     <row r="12" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2283,7 +2271,7 @@
       <c r="B12" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="80" t="s">
         <v>62</v>
       </c>
       <c r="D12" s="17"/>
@@ -2295,7 +2283,7 @@
       <c r="B13" s="30" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="79"/>
+      <c r="C13" s="81"/>
       <c r="D13" s="17"/>
     </row>
     <row r="14" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2305,7 +2293,7 @@
       <c r="B14" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C14" s="79"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="17"/>
     </row>
     <row r="15" spans="1:4" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2315,7 +2303,7 @@
       <c r="B15" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="17"/>
     </row>
     <row r="16" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2325,7 +2313,7 @@
       <c r="B16" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="C16" s="80"/>
+      <c r="C16" s="82"/>
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2335,7 +2323,7 @@
       <c r="B17" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C17" s="86" t="s">
+      <c r="C17" s="88" t="s">
         <v>87</v>
       </c>
       <c r="D17" s="23" t="s">
@@ -2349,7 +2337,7 @@
       <c r="B18" s="36" t="s">
         <v>98</v>
       </c>
-      <c r="C18" s="87"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="17"/>
     </row>
     <row r="19" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2359,7 +2347,7 @@
       <c r="B19" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="C19" s="87"/>
+      <c r="C19" s="89"/>
       <c r="D19" s="17"/>
     </row>
     <row r="20" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2369,7 +2357,7 @@
       <c r="B20" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="C20" s="87"/>
+      <c r="C20" s="89"/>
       <c r="D20" s="17"/>
     </row>
     <row r="21" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2379,27 +2367,27 @@
       <c r="B21" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="C21" s="87"/>
+      <c r="C21" s="89"/>
       <c r="D21" s="17"/>
     </row>
     <row r="22" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="32" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B22" s="72" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
-      <c r="C22" s="87"/>
+      <c r="C22" s="89"/>
       <c r="D22" s="23"/>
     </row>
     <row r="23" spans="1:5" s="16" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="36" t="s">
+        <v>376</v>
+      </c>
+      <c r="B23" s="36" t="s">
         <v>377</v>
       </c>
-      <c r="B23" s="36" t="s">
-        <v>378</v>
-      </c>
-      <c r="C23" s="88"/>
+      <c r="C23" s="90"/>
       <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2409,7 +2397,7 @@
       <c r="B24" s="38" t="s">
         <v>112</v>
       </c>
-      <c r="C24" s="91" t="s">
+      <c r="C24" s="93" t="s">
         <v>113</v>
       </c>
       <c r="D24" s="17"/>
@@ -2421,7 +2409,7 @@
       <c r="B25" s="40" t="s">
         <v>118</v>
       </c>
-      <c r="C25" s="79"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="17"/>
       <c r="E25" s="23"/>
     </row>
@@ -2432,7 +2420,7 @@
       <c r="B26" s="40" t="s">
         <v>120</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2442,7 +2430,7 @@
       <c r="B27" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="C27" s="80"/>
+      <c r="C27" s="82"/>
       <c r="D27" s="17"/>
     </row>
     <row r="28" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2452,8 +2440,8 @@
       <c r="B28" s="42" t="s">
         <v>135</v>
       </c>
-      <c r="C28" s="81" t="s">
-        <v>403</v>
+      <c r="C28" s="83" t="s">
+        <v>401</v>
       </c>
       <c r="D28" s="17"/>
     </row>
@@ -2464,7 +2452,7 @@
       <c r="B29" s="45" t="s">
         <v>142</v>
       </c>
-      <c r="C29" s="82"/>
+      <c r="C29" s="84"/>
       <c r="D29" s="17"/>
     </row>
     <row r="30" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2474,7 +2462,7 @@
       <c r="B30" s="42" t="s">
         <v>144</v>
       </c>
-      <c r="C30" s="82"/>
+      <c r="C30" s="84"/>
       <c r="D30" s="17"/>
     </row>
     <row r="31" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2484,7 +2472,7 @@
       <c r="B31" s="45" t="s">
         <v>146</v>
       </c>
-      <c r="C31" s="82"/>
+      <c r="C31" s="84"/>
       <c r="D31" s="23"/>
     </row>
     <row r="32" spans="1:5" ht="12.75" x14ac:dyDescent="0.2">
@@ -2494,7 +2482,7 @@
       <c r="B32" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="C32" s="82"/>
+      <c r="C32" s="84"/>
       <c r="D32" s="17"/>
     </row>
     <row r="33" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
@@ -2504,7 +2492,7 @@
       <c r="B33" s="45" t="s">
         <v>150</v>
       </c>
-      <c r="C33" s="82"/>
+      <c r="C33" s="84"/>
       <c r="D33" s="17"/>
     </row>
     <row r="34" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -2512,311 +2500,301 @@
         <v>402</v>
       </c>
       <c r="B34" s="45" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
-      <c r="C34" s="82"/>
+      <c r="C34" s="84"/>
       <c r="D34" s="23"/>
     </row>
     <row r="35" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="45" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B35" s="45" t="s">
         <v>405</v>
       </c>
-      <c r="C35" s="82"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="23"/>
     </row>
-    <row r="36" spans="1:4" s="68" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A36" s="45" t="s">
-        <v>410</v>
+    <row r="36" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
+        <v>165</v>
       </c>
-      <c r="B36" s="45" t="s">
-        <v>409</v>
+      <c r="B36" s="34" t="s">
+        <v>166</v>
       </c>
-      <c r="C36" s="83"/>
-      <c r="D36" s="23"/>
+      <c r="C36" s="95" t="s">
+        <v>167</v>
+      </c>
+      <c r="D36" s="17"/>
     </row>
     <row r="37" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="B37" s="34" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
-      <c r="C37" s="93" t="s">
-        <v>167</v>
-      </c>
+      <c r="C37" s="81"/>
       <c r="D37" s="17"/>
     </row>
     <row r="38" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="34" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="17"/>
     </row>
     <row r="39" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B39" s="34" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
-      <c r="C39" s="79"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="17"/>
     </row>
     <row r="40" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="34" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="B40" s="34" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
-      <c r="C40" s="79"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="17"/>
     </row>
     <row r="41" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="34" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="B41" s="34" t="s">
-        <v>176</v>
-      </c>
-      <c r="C41" s="79"/>
-      <c r="D41" s="17"/>
-    </row>
-    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A42" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="B42" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="C42" s="80"/>
-      <c r="D42" s="17"/>
-    </row>
-    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A43" s="49" t="s">
+      <c r="C41" s="82"/>
+      <c r="D41" s="17"/>
+    </row>
+    <row r="42" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A42" s="49" t="s">
         <v>181</v>
       </c>
-      <c r="B43" s="49" t="s">
+      <c r="B42" s="49" t="s">
         <v>194</v>
       </c>
-      <c r="C43" s="89" t="s">
+      <c r="C42" s="91" t="s">
         <v>195</v>
       </c>
-      <c r="D43" s="17"/>
-    </row>
-    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A44" s="36" t="s">
+      <c r="D42" s="17"/>
+    </row>
+    <row r="43" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A43" s="36" t="s">
         <v>198</v>
       </c>
-      <c r="B44" s="36" t="s">
+      <c r="B43" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="C44" s="79"/>
-      <c r="D44" s="17"/>
-    </row>
-    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="49" t="s">
+      <c r="C43" s="81"/>
+      <c r="D43" s="17"/>
+    </row>
+    <row r="44" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A44" s="49" t="s">
         <v>200</v>
       </c>
-      <c r="B45" s="49" t="s">
+      <c r="B44" s="49" t="s">
         <v>201</v>
       </c>
-      <c r="C45" s="79"/>
-      <c r="D45" s="17"/>
-    </row>
-    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A46" s="36" t="s">
+      <c r="C44" s="81"/>
+      <c r="D44" s="17"/>
+    </row>
+    <row r="45" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="B46" s="36" t="s">
+      <c r="B45" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="C46" s="79"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A47" s="49" t="s">
+      <c r="C45" s="81"/>
+      <c r="D45" s="17"/>
+    </row>
+    <row r="46" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A46" s="49" t="s">
         <v>206</v>
       </c>
-      <c r="B47" s="49" t="s">
+      <c r="B46" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="C47" s="79"/>
-      <c r="D47" s="17"/>
-    </row>
-    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A48" s="36" t="s">
+      <c r="C46" s="81"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A47" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="B48" s="36" t="s">
+      <c r="B47" s="36" t="s">
         <v>209</v>
       </c>
-      <c r="C48" s="79"/>
-      <c r="D48" s="17"/>
-    </row>
-    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A49" s="49" t="s">
+      <c r="C47" s="81"/>
+      <c r="D47" s="17"/>
+    </row>
+    <row r="48" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A48" s="49" t="s">
         <v>210</v>
       </c>
-      <c r="B49" s="49" t="s">
+      <c r="B48" s="49" t="s">
         <v>211</v>
       </c>
-      <c r="C49" s="80"/>
-      <c r="D49" s="17"/>
-    </row>
-    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A50" s="30" t="s">
+      <c r="C48" s="82"/>
+      <c r="D48" s="17"/>
+    </row>
+    <row r="49" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A49" s="30" t="s">
         <v>214</v>
       </c>
-      <c r="B50" s="30" t="s">
+      <c r="B49" s="30" t="s">
         <v>217</v>
       </c>
-      <c r="C50" s="92" t="s">
+      <c r="C49" s="94" t="s">
         <v>218</v>
       </c>
+      <c r="D49" s="17"/>
+    </row>
+    <row r="50" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A50" s="54" t="s">
+        <v>222</v>
+      </c>
+      <c r="B50" s="54" t="s">
+        <v>224</v>
+      </c>
+      <c r="C50" s="81"/>
       <c r="D50" s="17"/>
     </row>
     <row r="51" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A51" s="54" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="B51" s="54" t="s">
-        <v>224</v>
-      </c>
-      <c r="C51" s="79"/>
-      <c r="D51" s="17"/>
-    </row>
-    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A52" s="54" t="s">
-        <v>225</v>
-      </c>
-      <c r="B52" s="54" t="s">
         <v>226</v>
       </c>
-      <c r="C52" s="79"/>
-      <c r="D52" s="17"/>
-    </row>
-    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="30" t="s">
+      <c r="C51" s="81"/>
+      <c r="D51" s="17"/>
+    </row>
+    <row r="52" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A52" s="30" t="s">
         <v>227</v>
       </c>
-      <c r="B53" s="30" t="s">
+      <c r="B52" s="30" t="s">
         <v>228</v>
       </c>
-      <c r="C53" s="80"/>
-      <c r="D53" s="17"/>
-    </row>
-    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A54" s="55" t="s">
+      <c r="C52" s="82"/>
+      <c r="D52" s="17"/>
+    </row>
+    <row r="53" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="55" t="s">
         <v>229</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B53" s="55" t="s">
         <v>232</v>
       </c>
-      <c r="C54" s="90" t="s">
+      <c r="C53" s="92" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A55" s="57" t="s">
+    <row r="54" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A54" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="B55" s="57" t="s">
+      <c r="B54" s="57" t="s">
         <v>242</v>
       </c>
-      <c r="C55" s="79"/>
-    </row>
-    <row r="56" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A56" s="55" t="s">
+      <c r="C54" s="81"/>
+    </row>
+    <row r="55" spans="1:4" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A55" s="55" t="s">
         <v>243</v>
       </c>
-      <c r="B56" s="55" t="s">
+      <c r="B55" s="55" t="s">
         <v>244</v>
       </c>
-      <c r="C56" s="79"/>
+      <c r="C55" s="81"/>
+    </row>
+    <row r="56" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="69" t="s">
+        <v>369</v>
+      </c>
+      <c r="B56" s="69" t="s">
+        <v>372</v>
+      </c>
+      <c r="C56" s="86" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="57" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A57" s="69" t="s">
+      <c r="A57" s="70" t="s">
         <v>370</v>
       </c>
-      <c r="B57" s="69" t="s">
+      <c r="B57" s="70" t="s">
         <v>373</v>
       </c>
-      <c r="C57" s="84" t="s">
+      <c r="C57" s="87"/>
+    </row>
+    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="69" t="s">
+        <v>371</v>
+      </c>
+      <c r="B58" s="69" t="s">
+        <v>374</v>
+      </c>
+      <c r="C58" s="87"/>
+    </row>
+    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="73" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A58" s="70" t="s">
-        <v>371</v>
+      <c r="B59" s="73" t="s">
+        <v>422</v>
       </c>
-      <c r="B58" s="70" t="s">
-        <v>374</v>
+      <c r="C59" s="78" t="s">
+        <v>390</v>
       </c>
-      <c r="C58" s="85"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A59" s="69" t="s">
-        <v>372</v>
-      </c>
-      <c r="B59" s="69" t="s">
-        <v>375</v>
-      </c>
-      <c r="C59" s="85"/>
     </row>
     <row r="60" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="73" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
-      <c r="B60" s="73" t="s">
-        <v>426</v>
+      <c r="B60" t="s">
+        <v>394</v>
       </c>
-      <c r="C60" s="76" t="s">
-        <v>391</v>
-      </c>
+      <c r="C60" s="79"/>
     </row>
     <row r="61" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="73" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B61" t="s">
         <v>395</v>
       </c>
-      <c r="C61" s="77"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="73" t="s">
-        <v>397</v>
-      </c>
-      <c r="B62" t="s">
-        <v>396</v>
-      </c>
-      <c r="C62" s="77"/>
+      <c r="C61" s="79"/>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="C2:C11"/>
-    <mergeCell ref="C60:C62"/>
+    <mergeCell ref="C59:C61"/>
     <mergeCell ref="C12:C16"/>
-    <mergeCell ref="C28:C36"/>
-    <mergeCell ref="C57:C59"/>
+    <mergeCell ref="C28:C35"/>
+    <mergeCell ref="C56:C58"/>
     <mergeCell ref="C17:C23"/>
-    <mergeCell ref="C43:C49"/>
-    <mergeCell ref="C54:C56"/>
+    <mergeCell ref="C42:C48"/>
+    <mergeCell ref="C53:C55"/>
     <mergeCell ref="C24:C27"/>
-    <mergeCell ref="C50:C53"/>
-    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="C49:C52"/>
+    <mergeCell ref="C36:C41"/>
   </mergeCells>
-  <conditionalFormatting sqref="A43:C43 A45:B45 A47:B47 A49:B49">
+  <conditionalFormatting sqref="A42:C42 A44:B44 A46:B46 A48:B48">
     <cfRule type="notContainsBlanks" dxfId="1" priority="1">
-      <formula>LEN(TRIM(A43))&gt;0</formula>
+      <formula>LEN(TRIM(A42))&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2873,7 +2851,7 @@
       <c r="B3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="79"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="97"/>
       <c r="E3" s="7"/>
     </row>
@@ -2884,7 +2862,7 @@
       <c r="B4" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="79"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="97"/>
       <c r="E4" s="7"/>
     </row>
@@ -2895,7 +2873,7 @@
       <c r="B5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="97"/>
       <c r="E5" s="16" t="s">
         <v>23</v>
@@ -2908,7 +2886,7 @@
       <c r="B6" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C6" s="79"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="97"/>
       <c r="E6" s="20"/>
     </row>
@@ -2919,7 +2897,7 @@
       <c r="B7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C7" s="80"/>
+      <c r="C7" s="82"/>
       <c r="D7" s="97"/>
       <c r="E7" s="20"/>
     </row>
@@ -2930,7 +2908,7 @@
       <c r="B8" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="94" t="s">
+      <c r="C8" s="76" t="s">
         <v>43</v>
       </c>
       <c r="D8" s="96">
@@ -2945,7 +2923,7 @@
       <c r="B9" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="97"/>
       <c r="E9" s="7"/>
     </row>
@@ -2956,7 +2934,7 @@
       <c r="B10" s="22" t="s">
         <v>68</v>
       </c>
-      <c r="C10" s="79"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="97"/>
       <c r="E10" s="7"/>
     </row>
@@ -2967,7 +2945,7 @@
       <c r="B11" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="C11" s="79"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="97"/>
       <c r="E11" s="7"/>
     </row>
@@ -2978,7 +2956,7 @@
       <c r="B12" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="C12" s="79"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="97"/>
       <c r="E12" s="7"/>
     </row>
@@ -2989,7 +2967,7 @@
       <c r="B13" s="22" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="80"/>
+      <c r="C13" s="82"/>
       <c r="D13" s="97"/>
       <c r="E13" s="7"/>
     </row>
@@ -3015,7 +2993,7 @@
       <c r="B15" s="28" t="s">
         <v>91</v>
       </c>
-      <c r="C15" s="79"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="97"/>
       <c r="E15" s="7"/>
     </row>
@@ -3026,7 +3004,7 @@
       <c r="B16" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="C16" s="79"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="97"/>
       <c r="E16" s="7"/>
     </row>
@@ -3037,7 +3015,7 @@
       <c r="B17" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="C17" s="79"/>
+      <c r="C17" s="81"/>
       <c r="D17" s="97"/>
       <c r="E17" s="7"/>
     </row>
@@ -3048,7 +3026,7 @@
       <c r="B18" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="C18" s="79"/>
+      <c r="C18" s="81"/>
       <c r="D18" s="97"/>
       <c r="E18" s="7"/>
     </row>
@@ -3059,7 +3037,7 @@
       <c r="B19" s="37" t="s">
         <v>97</v>
       </c>
-      <c r="C19" s="79"/>
+      <c r="C19" s="81"/>
       <c r="D19" s="97"/>
       <c r="E19" s="7"/>
     </row>
@@ -3070,7 +3048,7 @@
       <c r="B20" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="79"/>
+      <c r="C20" s="81"/>
       <c r="D20" s="97"/>
       <c r="E20" s="7"/>
     </row>
@@ -3081,7 +3059,7 @@
       <c r="B21" s="37" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="79"/>
+      <c r="C21" s="81"/>
       <c r="D21" s="97"/>
       <c r="E21" s="7"/>
     </row>
@@ -3107,7 +3085,7 @@
       <c r="B23" s="41" t="s">
         <v>117</v>
       </c>
-      <c r="C23" s="79"/>
+      <c r="C23" s="81"/>
       <c r="D23" s="97"/>
       <c r="E23" s="7"/>
     </row>
@@ -3118,7 +3096,7 @@
       <c r="B24" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="C24" s="79"/>
+      <c r="C24" s="81"/>
       <c r="D24" s="97"/>
       <c r="E24" s="7"/>
     </row>
@@ -3129,7 +3107,7 @@
       <c r="B25" s="15" t="s">
         <v>127</v>
       </c>
-      <c r="C25" s="79"/>
+      <c r="C25" s="81"/>
       <c r="D25" s="97"/>
       <c r="E25" s="16" t="s">
         <v>128</v>
@@ -3142,7 +3120,7 @@
       <c r="B26" s="39" t="s">
         <v>130</v>
       </c>
-      <c r="C26" s="79"/>
+      <c r="C26" s="81"/>
       <c r="D26" s="97"/>
       <c r="E26" s="7"/>
     </row>
@@ -3153,7 +3131,7 @@
       <c r="B27" s="15" t="s">
         <v>132</v>
       </c>
-      <c r="C27" s="79"/>
+      <c r="C27" s="81"/>
       <c r="D27" s="97"/>
       <c r="E27" s="7"/>
     </row>
@@ -3164,7 +3142,7 @@
       <c r="B28" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="C28" s="79"/>
+      <c r="C28" s="81"/>
       <c r="D28" s="97"/>
       <c r="E28" s="7"/>
     </row>
@@ -3175,7 +3153,7 @@
       <c r="B29" s="44" t="s">
         <v>137</v>
       </c>
-      <c r="C29" s="86" t="s">
+      <c r="C29" s="88" t="s">
         <v>139</v>
       </c>
       <c r="D29" s="96">
@@ -3190,7 +3168,7 @@
       <c r="B30" s="46" t="s">
         <v>141</v>
       </c>
-      <c r="C30" s="79"/>
+      <c r="C30" s="81"/>
       <c r="D30" s="97"/>
       <c r="E30" s="7"/>
     </row>
@@ -3201,7 +3179,7 @@
       <c r="B31" s="44" t="s">
         <v>152</v>
       </c>
-      <c r="C31" s="79"/>
+      <c r="C31" s="81"/>
       <c r="D31" s="97"/>
       <c r="E31" s="7"/>
     </row>
@@ -3212,7 +3190,7 @@
       <c r="B32" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="C32" s="79"/>
+      <c r="C32" s="81"/>
       <c r="D32" s="97"/>
       <c r="E32" s="16" t="s">
         <v>128</v>
@@ -3225,7 +3203,7 @@
       <c r="B33" s="44" t="s">
         <v>156</v>
       </c>
-      <c r="C33" s="79"/>
+      <c r="C33" s="81"/>
       <c r="D33" s="97"/>
       <c r="E33" s="7"/>
     </row>
@@ -3236,7 +3214,7 @@
       <c r="B34" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="C34" s="79"/>
+      <c r="C34" s="81"/>
       <c r="D34" s="97"/>
       <c r="E34" s="7"/>
     </row>
@@ -3247,7 +3225,7 @@
       <c r="B35" s="44" t="s">
         <v>160</v>
       </c>
-      <c r="C35" s="79"/>
+      <c r="C35" s="81"/>
       <c r="D35" s="97"/>
       <c r="E35" s="7"/>
     </row>
@@ -3258,7 +3236,7 @@
       <c r="B36" s="32" t="s">
         <v>162</v>
       </c>
-      <c r="C36" s="79"/>
+      <c r="C36" s="81"/>
       <c r="D36" s="96">
         <v>5</v>
       </c>
@@ -3284,7 +3262,7 @@
       <c r="B38" s="48" t="s">
         <v>178</v>
       </c>
-      <c r="C38" s="79"/>
+      <c r="C38" s="81"/>
       <c r="D38" s="97"/>
       <c r="E38" s="7"/>
     </row>
@@ -3295,7 +3273,7 @@
       <c r="B39" s="47" t="s">
         <v>183</v>
       </c>
-      <c r="C39" s="79"/>
+      <c r="C39" s="81"/>
       <c r="D39" s="97"/>
       <c r="E39" s="16" t="s">
         <v>184</v>
@@ -3308,7 +3286,7 @@
       <c r="B40" s="48" t="s">
         <v>186</v>
       </c>
-      <c r="C40" s="79"/>
+      <c r="C40" s="81"/>
       <c r="D40" s="97"/>
       <c r="E40" s="7"/>
     </row>
@@ -3319,7 +3297,7 @@
       <c r="B41" s="47" t="s">
         <v>188</v>
       </c>
-      <c r="C41" s="79"/>
+      <c r="C41" s="81"/>
       <c r="D41" s="97"/>
       <c r="E41" s="7"/>
     </row>
@@ -3330,7 +3308,7 @@
       <c r="B42" s="34" t="s">
         <v>190</v>
       </c>
-      <c r="C42" s="79"/>
+      <c r="C42" s="81"/>
       <c r="D42" s="97"/>
       <c r="E42" s="7"/>
     </row>
@@ -3341,7 +3319,7 @@
       <c r="B43" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="C43" s="93" t="s">
+      <c r="C43" s="95" t="s">
         <v>193</v>
       </c>
       <c r="D43" s="96">
@@ -3356,7 +3334,7 @@
       <c r="B44" s="50" t="s">
         <v>197</v>
       </c>
-      <c r="C44" s="79"/>
+      <c r="C44" s="81"/>
       <c r="D44" s="97"/>
       <c r="E44" s="7"/>
     </row>
@@ -3367,7 +3345,7 @@
       <c r="B45" s="51" t="s">
         <v>205</v>
       </c>
-      <c r="C45" s="79"/>
+      <c r="C45" s="81"/>
       <c r="D45" s="97"/>
       <c r="E45" s="7"/>
     </row>
@@ -3378,7 +3356,7 @@
       <c r="B46" s="50" t="s">
         <v>213</v>
       </c>
-      <c r="C46" s="79"/>
+      <c r="C46" s="81"/>
       <c r="D46" s="97"/>
       <c r="E46" s="7"/>
     </row>
@@ -3389,7 +3367,7 @@
       <c r="B47" s="51" t="s">
         <v>216</v>
       </c>
-      <c r="C47" s="79"/>
+      <c r="C47" s="81"/>
       <c r="D47" s="97"/>
       <c r="E47" s="7"/>
     </row>
@@ -3400,7 +3378,7 @@
       <c r="B48" s="52" t="s">
         <v>174</v>
       </c>
-      <c r="C48" s="79"/>
+      <c r="C48" s="81"/>
       <c r="D48" s="97"/>
       <c r="E48" s="7"/>
     </row>
@@ -3426,7 +3404,7 @@
       <c r="B50" s="56" t="s">
         <v>231</v>
       </c>
-      <c r="C50" s="79"/>
+      <c r="C50" s="81"/>
       <c r="D50" s="97"/>
       <c r="E50" s="7"/>
     </row>
@@ -3437,7 +3415,7 @@
       <c r="B51" s="53" t="s">
         <v>235</v>
       </c>
-      <c r="C51" s="79"/>
+      <c r="C51" s="81"/>
       <c r="D51" s="97"/>
       <c r="E51" s="7"/>
     </row>
@@ -3448,7 +3426,7 @@
       <c r="B52" s="56" t="s">
         <v>203</v>
       </c>
-      <c r="C52" s="79"/>
+      <c r="C52" s="81"/>
       <c r="D52" s="97"/>
       <c r="E52" s="7"/>
     </row>
@@ -3459,7 +3437,7 @@
       <c r="B53" s="53" t="s">
         <v>238</v>
       </c>
-      <c r="C53" s="79"/>
+      <c r="C53" s="81"/>
       <c r="D53" s="97"/>
       <c r="E53" s="7"/>
     </row>
@@ -3470,7 +3448,7 @@
       <c r="B54" s="58" t="s">
         <v>241</v>
       </c>
-      <c r="C54" s="80"/>
+      <c r="C54" s="82"/>
       <c r="D54" s="97"/>
       <c r="E54" s="7"/>
     </row>
@@ -3496,7 +3474,7 @@
       <c r="B56" s="60" t="s">
         <v>248</v>
       </c>
-      <c r="C56" s="79"/>
+      <c r="C56" s="81"/>
       <c r="D56" s="97"/>
       <c r="E56" s="7"/>
     </row>
@@ -3507,7 +3485,7 @@
       <c r="B57" s="59" t="s">
         <v>250</v>
       </c>
-      <c r="C57" s="79"/>
+      <c r="C57" s="81"/>
       <c r="D57" s="97"/>
       <c r="E57" s="7"/>
     </row>
@@ -3518,7 +3496,7 @@
       <c r="B58" s="60" t="s">
         <v>252</v>
       </c>
-      <c r="C58" s="79"/>
+      <c r="C58" s="81"/>
       <c r="D58" s="97"/>
       <c r="E58" s="16" t="s">
         <v>253</v>
@@ -3531,7 +3509,7 @@
       <c r="B59" s="59" t="s">
         <v>146</v>
       </c>
-      <c r="C59" s="79"/>
+      <c r="C59" s="81"/>
       <c r="D59" s="97"/>
       <c r="E59" s="7"/>
     </row>
@@ -3542,7 +3520,7 @@
       <c r="B60" s="60" t="s">
         <v>256</v>
       </c>
-      <c r="C60" s="80"/>
+      <c r="C60" s="82"/>
       <c r="D60" s="97"/>
       <c r="E60" s="7"/>
     </row>
@@ -10128,6 +10106,8 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="D49:D54"/>
     <mergeCell ref="D29:D35"/>
     <mergeCell ref="D2:D7"/>
     <mergeCell ref="D55:D60"/>
@@ -10144,8 +10124,6 @@
     <mergeCell ref="D43:D48"/>
     <mergeCell ref="D36:D42"/>
     <mergeCell ref="C43:C48"/>
-    <mergeCell ref="C37:C42"/>
-    <mergeCell ref="D49:D54"/>
   </mergeCells>
   <conditionalFormatting sqref="B49:C49 B51 B53">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
@@ -10219,7 +10197,7 @@
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="80"/>
+      <c r="C3" s="82"/>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -10257,7 +10235,7 @@
       <c r="B5" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="79"/>
+      <c r="C5" s="81"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -10275,7 +10253,7 @@
       <c r="B6" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="80"/>
+      <c r="C6" s="82"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -10313,7 +10291,7 @@
       <c r="B8" s="27" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="79"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -10331,7 +10309,7 @@
       <c r="B9" s="24" t="s">
         <v>58</v>
       </c>
-      <c r="C9" s="79"/>
+      <c r="C9" s="81"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -10349,7 +10327,7 @@
       <c r="B10" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C10" s="80"/>
+      <c r="C10" s="82"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -24220,10 +24198,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J998"/>
+  <dimension ref="A1:J997"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B38" sqref="B38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="17.28515625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -24382,7 +24360,7 @@
         <v>274</v>
       </c>
       <c r="B10" s="64" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
@@ -24398,7 +24376,7 @@
         <v>276</v>
       </c>
       <c r="B11" s="64" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
@@ -24491,7 +24469,7 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="63" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="B17" s="65" t="s">
         <v>285</v>
@@ -24510,7 +24488,7 @@
         <v>288</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C18" s="10"/>
       <c r="D18" s="10"/>
@@ -24542,7 +24520,7 @@
         <v>291</v>
       </c>
       <c r="B20" s="71" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="10"/>
@@ -24590,7 +24568,7 @@
         <v>296</v>
       </c>
       <c r="B23" s="65" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
@@ -24606,7 +24584,7 @@
         <v>298</v>
       </c>
       <c r="B24" s="65" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
@@ -24782,7 +24760,7 @@
         <v>317</v>
       </c>
       <c r="B35" s="65" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="C35" s="10"/>
       <c r="D35" s="10"/>
@@ -24798,7 +24776,7 @@
         <v>318</v>
       </c>
       <c r="B36" s="65" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10"/>
@@ -24809,25 +24787,25 @@
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
     </row>
-    <row r="37" spans="1:10" s="68" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="63" t="s">
-        <v>319</v>
+        <v>409</v>
       </c>
       <c r="B37" s="65" t="s">
-        <v>411</v>
+        <v>319</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="10"/>
-    </row>
-    <row r="38" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G37" s="7"/>
+      <c r="H37" s="7"/>
+      <c r="I37" s="7"/>
+      <c r="J37" s="7"/>
+    </row>
+    <row r="38" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="63" t="s">
-        <v>413</v>
+        <v>325</v>
       </c>
       <c r="B38" s="65" t="s">
         <v>320</v>
@@ -24843,7 +24821,7 @@
     </row>
     <row r="39" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="63" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B39" s="65" t="s">
         <v>321</v>
@@ -24859,7 +24837,7 @@
     </row>
     <row r="40" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="63" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B40" s="65" t="s">
         <v>322</v>
@@ -24875,7 +24853,7 @@
     </row>
     <row r="41" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="63" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="B41" s="65" t="s">
         <v>323</v>
@@ -24889,11 +24867,11 @@
       <c r="I41" s="7"/>
       <c r="J41" s="7"/>
     </row>
-    <row r="42" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="63" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
-      <c r="B42" s="65" t="s">
+      <c r="B42" s="64" t="s">
         <v>324</v>
       </c>
       <c r="C42" s="10"/>
@@ -24905,12 +24883,12 @@
       <c r="I42" s="7"/>
       <c r="J42" s="7"/>
     </row>
-    <row r="43" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="63" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="B43" s="64" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
@@ -24921,12 +24899,12 @@
       <c r="I43" s="7"/>
       <c r="J43" s="7"/>
     </row>
-    <row r="44" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="63" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
-      <c r="B44" s="64" t="s">
-        <v>327</v>
+      <c r="B44" s="65" t="s">
+        <v>328</v>
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
@@ -24939,10 +24917,10 @@
     </row>
     <row r="45" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="63" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
-      <c r="B45" s="65" t="s">
-        <v>329</v>
+      <c r="B45" s="64" t="s">
+        <v>330</v>
       </c>
       <c r="C45" s="10"/>
       <c r="D45" s="10"/>
@@ -24953,12 +24931,12 @@
       <c r="I45" s="7"/>
       <c r="J45" s="7"/>
     </row>
-    <row r="46" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="63" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
-      <c r="B46" s="64" t="s">
-        <v>331</v>
+      <c r="B46" s="65" t="s">
+        <v>332</v>
       </c>
       <c r="C46" s="10"/>
       <c r="D46" s="10"/>
@@ -24969,12 +24947,12 @@
       <c r="I46" s="7"/>
       <c r="J46" s="7"/>
     </row>
-    <row r="47" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="63" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
-      <c r="B47" s="65" t="s">
-        <v>333</v>
+      <c r="B47" s="64" t="s">
+        <v>334</v>
       </c>
       <c r="C47" s="10"/>
       <c r="D47" s="10"/>
@@ -24985,12 +24963,12 @@
       <c r="I47" s="7"/>
       <c r="J47" s="7"/>
     </row>
-    <row r="48" spans="1:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="63" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
-      <c r="B48" s="64" t="s">
-        <v>335</v>
+      <c r="B48" s="65" t="s">
+        <v>336</v>
       </c>
       <c r="C48" s="10"/>
       <c r="D48" s="10"/>
@@ -25001,12 +24979,12 @@
       <c r="I48" s="7"/>
       <c r="J48" s="7"/>
     </row>
-    <row r="49" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="63" t="s">
-        <v>346</v>
+        <v>410</v>
       </c>
-      <c r="B49" s="65" t="s">
-        <v>337</v>
+      <c r="B49" s="64" t="s">
+        <v>338</v>
       </c>
       <c r="C49" s="10"/>
       <c r="D49" s="10"/>
@@ -25019,10 +24997,10 @@
     </row>
     <row r="50" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="63" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
-      <c r="B50" s="64" t="s">
-        <v>339</v>
+      <c r="B50" s="65" t="s">
+        <v>340</v>
       </c>
       <c r="C50" s="10"/>
       <c r="D50" s="10"/>
@@ -25033,12 +25011,12 @@
       <c r="I50" s="7"/>
       <c r="J50" s="7"/>
     </row>
-    <row r="51" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="63" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
-      <c r="B51" s="65" t="s">
-        <v>341</v>
+      <c r="B51" s="64" t="s">
+        <v>342</v>
       </c>
       <c r="C51" s="10"/>
       <c r="D51" s="10"/>
@@ -25049,12 +25027,12 @@
       <c r="I51" s="7"/>
       <c r="J51" s="7"/>
     </row>
-    <row r="52" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="63" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
-      <c r="B52" s="64" t="s">
-        <v>343</v>
+      <c r="B52" s="65" t="s">
+        <v>344</v>
       </c>
       <c r="C52" s="10"/>
       <c r="D52" s="10"/>
@@ -25065,12 +25043,12 @@
       <c r="I52" s="7"/>
       <c r="J52" s="7"/>
     </row>
-    <row r="53" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="63" t="s">
-        <v>417</v>
+        <v>347</v>
       </c>
-      <c r="B53" s="65" t="s">
-        <v>345</v>
+      <c r="B53" s="64" t="s">
+        <v>346</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10"/>
@@ -25081,12 +25059,12 @@
       <c r="I53" s="7"/>
       <c r="J53" s="7"/>
     </row>
-    <row r="54" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="63" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B54" s="64" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10"/>
@@ -25099,10 +25077,10 @@
     </row>
     <row r="55" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="63" t="s">
+        <v>351</v>
+      </c>
+      <c r="B55" s="65" t="s">
         <v>350</v>
-      </c>
-      <c r="B55" s="64" t="s">
-        <v>349</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10"/>
@@ -25115,10 +25093,10 @@
     </row>
     <row r="56" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="63" t="s">
+        <v>353</v>
+      </c>
+      <c r="B56" s="64" t="s">
         <v>352</v>
-      </c>
-      <c r="B56" s="65" t="s">
-        <v>351</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10"/>
@@ -25131,10 +25109,10 @@
     </row>
     <row r="57" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="63" t="s">
-        <v>354</v>
+        <v>381</v>
       </c>
-      <c r="B57" s="64" t="s">
-        <v>353</v>
+      <c r="B57" s="71" t="s">
+        <v>384</v>
       </c>
       <c r="C57" s="10"/>
       <c r="D57" s="10"/>
@@ -25145,17 +25123,17 @@
       <c r="I57" s="7"/>
       <c r="J57" s="7"/>
     </row>
-    <row r="58" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A58" s="63" t="s">
         <v>382</v>
       </c>
-      <c r="B58" s="71" t="s">
+      <c r="B58" s="65" t="s">
         <v>385</v>
       </c>
-      <c r="C58" s="10"/>
-      <c r="D58" s="10"/>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
+      <c r="C58" s="7"/>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="7"/>
       <c r="G58" s="7"/>
       <c r="H58" s="7"/>
       <c r="I58" s="7"/>
@@ -25165,7 +25143,7 @@
       <c r="A59" s="63" t="s">
         <v>383</v>
       </c>
-      <c r="B59" s="65" t="s">
+      <c r="B59" s="64" t="s">
         <v>386</v>
       </c>
       <c r="C59" s="7"/>
@@ -25179,9 +25157,9 @@
     </row>
     <row r="60" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A60" s="63" t="s">
-        <v>384</v>
+        <v>391</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="65" t="s">
         <v>387</v>
       </c>
       <c r="C60" s="7"/>
@@ -25195,10 +25173,10 @@
     </row>
     <row r="61" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A61" s="63" t="s">
+        <v>399</v>
+      </c>
+      <c r="B61" s="74" t="s">
         <v>392</v>
-      </c>
-      <c r="B61" s="65" t="s">
-        <v>388</v>
       </c>
       <c r="C61" s="7"/>
       <c r="D61" s="7"/>
@@ -25213,8 +25191,8 @@
       <c r="A62" s="63" t="s">
         <v>400</v>
       </c>
-      <c r="B62" s="74" t="s">
-        <v>393</v>
+      <c r="B62" s="75" t="s">
+        <v>397</v>
       </c>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
@@ -25227,9 +25205,9 @@
     </row>
     <row r="63" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A63" s="63" t="s">
-        <v>401</v>
+        <v>421</v>
       </c>
-      <c r="B63" s="75" t="s">
+      <c r="B63" s="74" t="s">
         <v>398</v>
       </c>
       <c r="C63" s="7"/>
@@ -25242,12 +25220,8 @@
       <c r="J63" s="7"/>
     </row>
     <row r="64" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A64" s="63" t="s">
-        <v>425</v>
-      </c>
-      <c r="B64" s="74" t="s">
-        <v>399</v>
-      </c>
+      <c r="A64" s="7"/>
+      <c r="B64" s="7"/>
       <c r="C64" s="7"/>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
@@ -36452,18 +36426,6 @@
       <c r="H997" s="7"/>
       <c r="I997" s="7"/>
       <c r="J997" s="7"/>
-    </row>
-    <row r="998" spans="1:10" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A998" s="7"/>
-      <c r="B998" s="7"/>
-      <c r="C998" s="7"/>
-      <c r="D998" s="7"/>
-      <c r="E998" s="7"/>
-      <c r="F998" s="7"/>
-      <c r="G998" s="7"/>
-      <c r="H998" s="7"/>
-      <c r="I998" s="7"/>
-      <c r="J998" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -36517,7 +36479,7 @@
         <v>0</v>
       </c>
       <c r="B3" s="66" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -36532,10 +36494,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
@@ -36550,10 +36512,10 @@
     </row>
     <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="67" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B5" s="67" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
@@ -36568,10 +36530,10 @@
     </row>
     <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="38" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B6" s="38" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
@@ -36586,10 +36548,10 @@
     </row>
     <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="67" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B7" s="67" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -36604,10 +36566,10 @@
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="38" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B8" s="38" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -36622,10 +36584,10 @@
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="38" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
@@ -36641,7 +36603,7 @@
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="10"/>
       <c r="B10" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
